--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8086D7C-5C90-4CFB-AC47-C823E780F752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E9344B-F40F-4763-841C-0F383F1937B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Impelmentatie van Bestuurder + Documetatie</t>
+  </si>
+  <si>
+    <t>MoveUp</t>
+  </si>
+  <si>
+    <t>Mee nemen naar volgende deadline</t>
   </si>
 </sst>
 </file>
@@ -208,32 +214,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,7 +234,48 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -260,7 +291,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -274,7 +305,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -591,7 +622,7 @@
   <dimension ref="B3:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,111 +637,115 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>44476</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="L6" s="4" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="5"/>
+      <c r="L6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="L7" s="5" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="5"/>
+      <c r="L7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="14"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="6"/>
+      <c r="L8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J12" s="1"/>
@@ -724,13 +759,13 @@
     <mergeCell ref="E3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I8">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$I5="Pending"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>$I5="InProgress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$I5="Merged"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="1">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E9344B-F40F-4763-841C-0F383F1937B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446088DE-544E-413A-AE74-DE214FBEECDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -234,18 +234,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -275,6 +263,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,7 +622,7 @@
   <dimension ref="B3:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,19 +640,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
@@ -670,15 +670,15 @@
       <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -687,50 +687,52 @@
       <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="20">
         <v>44476</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="9"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="5"/>
-      <c r="L6" s="19" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="9"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="5"/>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -740,10 +742,10 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="6"/>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="18" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446088DE-544E-413A-AE74-DE214FBEECDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C284B59E-BD49-4F35-B369-A3EF1C210A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -149,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +186,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -273,7 +279,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,7 +628,7 @@
   <dimension ref="B3:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +716,7 @@
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>12</v>
@@ -728,7 +734,9 @@
         <v>5</v>
       </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="L7" s="16" t="s">
         <v>13</v>
       </c>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C284B59E-BD49-4F35-B369-A3EF1C210A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338D7A91-A372-4032-ABE7-5D68D6800732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Branche</t>
   </si>
   <si>
-    <t>ImplementatieBestuurder</t>
-  </si>
-  <si>
     <t>Master</t>
   </si>
   <si>
@@ -99,10 +96,13 @@
     <t>Impelmentatie van Bestuurder + Documetatie</t>
   </si>
   <si>
-    <t>MoveUp</t>
-  </si>
-  <si>
     <t>Mee nemen naar volgende deadline</t>
+  </si>
+  <si>
+    <t>ImplementatieTestBestuurder</t>
+  </si>
+  <si>
+    <t>MoveDown</t>
   </si>
 </sst>
 </file>
@@ -628,13 +628,13 @@
   <dimension ref="B3:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
     <col min="7" max="7" width="42.85546875" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
@@ -647,7 +647,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -656,7 +656,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M3" s="21"/>
     </row>
@@ -677,10 +677,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,60 +688,60 @@
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="20">
         <v>44476</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="19"/>
       <c r="F7" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,10 +751,10 @@
       <c r="H8" s="8"/>
       <c r="I8" s="6"/>
       <c r="L8" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C284B59E-BD49-4F35-B369-A3EF1C210A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6072607-9670-47D7-A99A-19D50C515E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Branche</t>
   </si>
   <si>
-    <t>ImplementatieBestuurder</t>
-  </si>
-  <si>
     <t>Master</t>
   </si>
   <si>
@@ -99,10 +96,13 @@
     <t>Impelmentatie van Bestuurder + Documetatie</t>
   </si>
   <si>
-    <t>MoveUp</t>
-  </si>
-  <si>
     <t>Mee nemen naar volgende deadline</t>
+  </si>
+  <si>
+    <t>ImplementatieTestBestuurder</t>
+  </si>
+  <si>
+    <t>MoveDown</t>
   </si>
 </sst>
 </file>
@@ -628,13 +628,13 @@
   <dimension ref="B3:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
     <col min="7" max="7" width="42.85546875" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
@@ -647,7 +647,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -656,7 +656,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M3" s="21"/>
     </row>
@@ -677,10 +677,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,60 +688,60 @@
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="20">
         <v>44476</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="19"/>
       <c r="F7" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,10 +751,10 @@
       <c r="H8" s="8"/>
       <c r="I8" s="6"/>
       <c r="L8" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6072607-9670-47D7-A99A-19D50C515E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ACE608-1CDB-4E94-A304-3276A7C04A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>MoveDown</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>ImplementatieVoertuig</t>
+  </si>
+  <si>
+    <t>Implementeren Voertuig + test</t>
   </si>
 </sst>
 </file>
@@ -233,13 +242,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -276,12 +278,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -627,40 +636,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
   <dimension ref="B3:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="62.5703125" customWidth="1"/>
+    <col min="13" max="13" width="62.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="21"/>
+      <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
@@ -676,15 +685,15 @@
       <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="19" t="s">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="18" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -693,71 +702,81 @@
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>44476</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="19"/>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="18"/>
       <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="19"/>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="18"/>
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
-      <c r="L8" s="17" t="s">
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="17">
+        <v>44476</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ACE608-1CDB-4E94-A304-3276A7C04A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2DA803-1FF4-4A02-94FC-C49ED85BBB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Implementeren Voertuig + test</t>
+  </si>
+  <si>
+    <t>Arnout</t>
+  </si>
+  <si>
+    <t>ImplementatieTankkaart</t>
+  </si>
+  <si>
+    <t>Implementeren Tankkaart + test</t>
   </si>
 </sst>
 </file>
@@ -239,9 +248,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -275,22 +281,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -299,7 +308,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -313,14 +329,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -634,42 +643,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
-  <dimension ref="B3:M12"/>
+  <dimension ref="B3:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1"/>
-    <col min="7" max="7" width="42.88671875" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="62.5546875" customWidth="1"/>
+    <col min="13" max="13" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="20"/>
+      <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
@@ -685,15 +694,15 @@
       <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="18" t="s">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -702,103 +711,118 @@
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>44476</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="18"/>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="17"/>
       <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="18"/>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="17"/>
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="16" t="s">
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="17">
-        <v>44476</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="22"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="H5:H7"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I8">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="I5:I9">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$I5="Stuck"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$I5="Merged"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$I5="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$I5="InProgress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$I5="Merged"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I5="Stuck"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2DA803-1FF4-4A02-94FC-C49ED85BBB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8C910B-B5A5-4F16-BE38-D16E4432E8E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -111,9 +107,6 @@
     <t>ImplementatieVoertuig</t>
   </si>
   <si>
-    <t>Implementeren Voertuig + test</t>
-  </si>
-  <si>
     <t>Arnout</t>
   </si>
   <si>
@@ -121,6 +114,15 @@
   </si>
   <si>
     <t>Implementeren Tankkaart + test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementeren Voertuig </t>
+  </si>
+  <si>
+    <t>Impelmentatie van Tests Voertuig</t>
+  </si>
+  <si>
+    <t>VoertuigTests</t>
   </si>
 </sst>
 </file>
@@ -238,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -285,20 +287,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,9 +648,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
-  <dimension ref="B3:M13"/>
+  <dimension ref="B3:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -664,19 +669,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="19"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
@@ -702,7 +707,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -711,7 +716,7 @@
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="23">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -725,14 +730,14 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="17"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -744,16 +749,16 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="17"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>12</v>
@@ -770,11 +775,11 @@
         <v>24</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="H8" s="23"/>
       <c r="I8" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>22</v>
@@ -785,33 +790,79 @@
     </row>
     <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="23">
+        <v>44483</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="H5:H9"/>
+    <mergeCell ref="H10:H12"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I9">
+  <conditionalFormatting sqref="I5:I12">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8C910B-B5A5-4F16-BE38-D16E4432E8E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDFCC48-BEE4-4C61-A2FC-481A55CBE944}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>VoertuigTests</t>
+  </si>
+  <si>
+    <t>ImplementatieAdres</t>
+  </si>
+  <si>
+    <t>Aanpassen van bestuurder</t>
+  </si>
+  <si>
+    <t>Implementeren adres tests</t>
+  </si>
+  <si>
+    <t>Implementeren van adres + AdresException</t>
   </si>
 </sst>
 </file>
@@ -213,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -236,11 +248,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -296,6 +345,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,6 +355,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
-  <dimension ref="B3:M16"/>
+  <dimension ref="B3:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,19 +739,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="21"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
@@ -707,16 +777,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="24">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -730,14 +800,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="20"/>
-      <c r="F6" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -749,14 +817,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -777,7 +845,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -798,7 +866,7 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -806,63 +874,100 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="23">
+      <c r="F10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="24">
         <v>44483</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="L10" s="18"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="L12" s="18"/>
       <c r="M12" s="19"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="H5:H9"/>
-    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I12">
+  <conditionalFormatting sqref="I5:I14">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDFCC48-BEE4-4C61-A2FC-481A55CBE944}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9F18F0-F625-4034-A9FD-336407589135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -360,10 +360,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,22 +720,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
   <dimension ref="B3:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="62.5703125" customWidth="1"/>
+    <col min="13" max="13" width="62.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
@@ -776,7 +776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="21" t="s">
         <v>4</v>
       </c>
@@ -799,9 +799,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E6" s="21"/>
-      <c r="F6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E7" s="21"/>
       <c r="F7" s="4" t="s">
         <v>21</v>
@@ -835,7 +835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E8" s="15" t="s">
         <v>23</v>
       </c>
@@ -856,7 +856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
@@ -873,7 +873,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="19"/>
     </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="25" t="s">
         <v>4</v>
       </c>
@@ -892,8 +892,8 @@
       <c r="L10" s="18"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="27"/>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="26"/>
       <c r="F11" s="29"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
@@ -905,20 +905,20 @@
       <c r="L11" s="18"/>
       <c r="M11" s="19"/>
     </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="26"/>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="27"/>
       <c r="F12" s="30"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="19"/>
     </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="17" t="s">
         <v>23</v>
       </c>
@@ -930,12 +930,12 @@
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="19"/>
     </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" s="17" t="s">
         <v>25</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="19"/>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9F18F0-F625-4034-A9FD-336407589135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256F9840-5B6F-4EB3-A8E7-B04269DD72EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -721,21 +721,21 @@
   <dimension ref="B3:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1"/>
-    <col min="7" max="7" width="42.88671875" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="62.5546875" customWidth="1"/>
+    <col min="13" max="13" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
@@ -776,7 +776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="21" t="s">
         <v>4</v>
       </c>
@@ -799,7 +799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="21"/>
       <c r="F6" s="27"/>
       <c r="G6" s="4" t="s">
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="21"/>
       <c r="F7" s="4" t="s">
         <v>21</v>
@@ -835,7 +835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="15" t="s">
         <v>23</v>
       </c>
@@ -856,7 +856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
@@ -873,7 +873,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="19"/>
     </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="25" t="s">
         <v>4</v>
       </c>
@@ -887,12 +887,12 @@
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="26"/>
       <c r="F11" s="29"/>
       <c r="G11" s="16" t="s">
@@ -900,12 +900,12 @@
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="19"/>
     </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="27"/>
       <c r="F12" s="30"/>
       <c r="G12" s="16" t="s">
@@ -913,12 +913,12 @@
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="19"/>
     </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="17" t="s">
         <v>23</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="19"/>
     </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="17" t="s">
         <v>25</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="19"/>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256F9840-5B6F-4EB3-A8E7-B04269DD72EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FE397E-62B1-4A2D-87CB-E763AFE431C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -135,6 +135,27 @@
   </si>
   <si>
     <t>Implementeren van adres + AdresException</t>
+  </si>
+  <si>
+    <t>Structuur update</t>
+  </si>
+  <si>
+    <t>Implementeren van BrandstofTypeManager</t>
+  </si>
+  <si>
+    <t>Implementeren van WagenTypeManager</t>
+  </si>
+  <si>
+    <t>Implementeren van RijbewijsTypeManager</t>
+  </si>
+  <si>
+    <t>Implementeren van BestuurderManager</t>
+  </si>
+  <si>
+    <t>Implementeren van VoertuigManager</t>
+  </si>
+  <si>
+    <t>Implementeren van TankkaartManger</t>
   </si>
 </sst>
 </file>
@@ -289,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -375,6 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -718,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
-  <dimension ref="B3:M18"/>
+  <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +952,7 @@
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="19"/>
@@ -947,14 +969,57 @@
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="19"/>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G18" s="31" t="s">
+        <v>38</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G19" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G20" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G21" s="31" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -962,12 +1027,12 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="H5:H9"/>
-    <mergeCell ref="H10:H14"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I14">
+  <conditionalFormatting sqref="I5:I15">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FE397E-62B1-4A2D-87CB-E763AFE431C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAC02DE-E0F8-4C64-A001-0708C088615D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -366,6 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,7 +397,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -742,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
   <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,19 +764,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
@@ -799,16 +802,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="26" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="25">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -822,12 +825,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="21"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -839,14 +842,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="21"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -867,7 +870,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -888,7 +891,7 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -896,16 +899,16 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="29" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="25">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -915,12 +918,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="26"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -928,12 +931,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="27"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="24"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -950,7 +953,7 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -967,7 +970,7 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
@@ -975,7 +978,7 @@
       <c r="M14" s="19"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="32" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="16" t="s">
@@ -984,45 +987,53 @@
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="31" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="21" t="s">
         <v>38</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="21" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E3:I3"/>
@@ -1030,9 +1041,10 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H10:H16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I15">
+  <conditionalFormatting sqref="I5:I16">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAC02DE-E0F8-4C64-A001-0708C088615D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28179E87-2D7E-425F-9BA9-027A0EC03389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>Implementeren van TankkaartManger</t>
+  </si>
+  <si>
+    <t>Implementeren van Wagentype</t>
+  </si>
+  <si>
+    <t>ImplementatieWagenType</t>
+  </si>
+  <si>
+    <t>Implementeren van RijbewijsTyp</t>
+  </si>
+  <si>
+    <t>ImplementatieRijbewijsType</t>
+  </si>
+  <si>
+    <t>ImplementatieBrandstofType</t>
+  </si>
+  <si>
+    <t>Implementeren van BrandstofType</t>
   </si>
 </sst>
 </file>
@@ -310,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -370,6 +388,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,6 +423,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,42 +788,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
-  <dimension ref="B3:M21"/>
+  <dimension ref="B3:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="62.5703125" customWidth="1"/>
+    <col min="13" max="13" width="62.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
@@ -801,17 +846,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="22" t="s">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="27">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -824,13 +869,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="22"/>
-      <c r="F6" s="28"/>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="24"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -841,15 +886,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="22"/>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="24"/>
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -860,7 +905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E8" s="15" t="s">
         <v>23</v>
       </c>
@@ -870,7 +915,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -881,7 +926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
@@ -891,24 +936,24 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="19"/>
     </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="26" t="s">
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="31" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="27">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -917,33 +962,33 @@
       <c r="L10" s="18"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="27"/>
-      <c r="F11" s="30"/>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="29"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="19"/>
     </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="28"/>
-      <c r="F12" s="31"/>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="30"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="19"/>
     </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="17" t="s">
         <v>23</v>
       </c>
@@ -953,14 +998,14 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="19"/>
     </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" s="17" t="s">
         <v>25</v>
       </c>
@@ -970,15 +1015,15 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="25"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="19"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="32" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E15" s="34" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="16" t="s">
@@ -987,53 +1032,115 @@
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="32"/>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="34"/>
       <c r="F16" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="25"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G17" s="21" t="s">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E17" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="37">
+        <v>44490</v>
+      </c>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G18" s="21" t="s">
+      <c r="H18" s="38"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E20" s="24"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G19" s="21" t="s">
+      <c r="H20" s="38"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G22" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G20" s="21" t="s">
+      <c r="H22" s="40"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G23" s="21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G21" s="21" t="s">
+      <c r="H23" s="36"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G24" s="21" t="s">
         <v>41</v>
       </c>
+      <c r="H24" s="36"/>
+      <c r="I24" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="H17:H21"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E3:I3"/>
@@ -1044,7 +1151,7 @@
     <mergeCell ref="H10:H16"/>
     <mergeCell ref="E15:E16"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I16">
+  <conditionalFormatting sqref="I5:I17">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\FleetMangementApp\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28179E87-2D7E-425F-9BA9-027A0EC03389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55550E6F-4415-46D0-8DB2-A25915A336E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -328,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -394,62 +394,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -788,42 +822,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
-  <dimension ref="B3:M24"/>
+  <dimension ref="B3:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1"/>
-    <col min="7" max="7" width="42.88671875" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="62.5546875" customWidth="1"/>
+    <col min="13" max="13" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="25"/>
-    </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
@@ -846,17 +880,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="24" t="s">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="37" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="36">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -869,13 +903,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="24"/>
-      <c r="F6" s="30"/>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="30"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -886,15 +920,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="24"/>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="30"/>
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="27"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -905,7 +939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="15" t="s">
         <v>23</v>
       </c>
@@ -915,7 +949,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="27"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -926,7 +960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
@@ -936,24 +970,24 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="27"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="19"/>
     </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="28" t="s">
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="40" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="31">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -962,33 +996,33 @@
       <c r="L10" s="18"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="29"/>
-      <c r="F11" s="32"/>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="38"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="19"/>
     </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="30"/>
-      <c r="F12" s="33"/>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="39"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="19"/>
     </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="17" t="s">
         <v>23</v>
       </c>
@@ -998,14 +1032,14 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="27"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="19"/>
     </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="17" t="s">
         <v>25</v>
       </c>
@@ -1015,15 +1049,15 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="27"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="19"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E15" s="34" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="16" t="s">
@@ -1032,115 +1066,123 @@
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="27"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="34"/>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="28"/>
       <c r="F16" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="31">
+        <v>44490</v>
+      </c>
       <c r="I16" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E17" s="34" t="s">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="29" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="37">
-        <v>44490</v>
-      </c>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E19" s="24" t="s">
+      <c r="H18" s="32"/>
+      <c r="I18" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="29" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E20" s="24"/>
-      <c r="F20" s="35"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="30"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="4"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="4"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="24" t="s">
+        <v>11</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H22" s="26"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H23" s="25"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G24" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="4"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I25" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="H17:H21"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E3:I3"/>
@@ -1148,10 +1190,15 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H16"/>
     <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E19:E20"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I17">
+  <conditionalFormatting sqref="I5:I25">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55550E6F-4415-46D0-8DB2-A25915A336E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31409BD-D93C-4067-929B-938A8CEA72B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -328,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -384,7 +384,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,87 +402,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -822,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
-  <dimension ref="B3:M25"/>
+  <dimension ref="B3:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,19 +814,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="34"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
@@ -881,16 +852,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="31">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -904,12 +875,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="30"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -921,14 +892,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="30"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -949,7 +920,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="36"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -970,7 +941,7 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="36"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -978,16 +949,16 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="35" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="39">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -997,12 +968,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="38"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="32"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1010,12 +981,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="39"/>
-      <c r="F12" s="42"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="32"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -1032,7 +1003,7 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="32"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1049,15 +1020,15 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="32"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="19"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="28" t="s">
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="38" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="16" t="s">
@@ -1066,123 +1037,137 @@
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="33"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="28"/>
+    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="38"/>
       <c r="F16" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="39">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E17" s="28" t="s">
+    <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="42" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="23" t="s">
+      <c r="H17" s="40"/>
+      <c r="I17" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
+    <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="38"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="24" t="s">
+      <c r="H18" s="40"/>
+      <c r="I18" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="30" t="s">
+    <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="42" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E20" s="30"/>
-      <c r="F20" s="29"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="28"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="24" t="s">
-        <v>10</v>
+      <c r="H20" s="40"/>
+      <c r="I20" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="22" t="s">
+    <row r="21" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="26" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="24" t="s">
+      <c r="H21" s="41"/>
+      <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="G22" s="21" t="s">
+    <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="G23" s="21" t="s">
+      <c r="H22" s="25"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="G24" s="21" t="s">
+      <c r="H23" s="24"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="I25" s="43"/>
-    </row>
+      <c r="H24" s="24"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E3:I3"/>
@@ -1190,13 +1175,6 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I25">
     <cfRule type="expression" dxfId="3" priority="1">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31409BD-D93C-4067-929B-938A8CEA72B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEB78C4-6501-49B2-A910-5C25B238DB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -174,6 +174,21 @@
   </si>
   <si>
     <t>Implementeren van BrandstofType</t>
+  </si>
+  <si>
+    <t>UI Ontwerp</t>
+  </si>
+  <si>
+    <t>Commentaar + extra testen voor voertuig</t>
+  </si>
+  <si>
+    <t>Commentaar + extra testen voor tankkaart + ontberkende methode en  properties aanvullen</t>
+  </si>
+  <si>
+    <t>Extra tests voor bestuurder</t>
+  </si>
+  <si>
+    <t>Commentaar + extra test voor Wagentype</t>
   </si>
 </sst>
 </file>
@@ -328,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -399,55 +414,67 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -793,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
-  <dimension ref="B3:M26"/>
+  <dimension ref="B3:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,19 +841,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="29"/>
+      <c r="M3" s="34"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
@@ -852,16 +879,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="37" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="36">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -875,12 +902,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="28"/>
-      <c r="F6" s="34"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -892,14 +919,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="28"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="45" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -914,13 +941,13 @@
       <c r="E8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="28" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -935,13 +962,13 @@
       <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -949,16 +976,16 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="40" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="30">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -968,12 +995,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="33"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -981,12 +1008,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="34"/>
-      <c r="F12" s="37"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="40"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -997,13 +1024,13 @@
       <c r="E13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1014,43 +1041,41 @@
       <c r="E14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="40"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="40" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="41"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="38"/>
-      <c r="F16" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="30">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1058,53 +1083,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="40" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="40"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="38"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="42"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="40"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="40" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="40"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="28"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="42"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="40"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1115,13 +1140,13 @@
       <c r="E21" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="28" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="41"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1129,38 +1154,121 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>7</v>
+      </c>
       <c r="G22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="30">
+        <v>44497</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="39"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="27"/>
+      <c r="F24" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="27"/>
+      <c r="F25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="27"/>
+      <c r="F26" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="16" t="s">
+      <c r="H27" s="25"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="16" t="s">
+      <c r="H28" s="24"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="46"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="H16:H21"/>
     <mergeCell ref="H10:H15"/>
@@ -1168,15 +1276,8 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I25">
+  <conditionalFormatting sqref="I5:I30">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEB78C4-6501-49B2-A910-5C25B238DB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23758455-5CA6-4957-9F5A-6CD8172DCA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Commentaar + extra test voor Wagentype</t>
+  </si>
+  <si>
+    <t>Commentaar toevoegen voor WagenTypeManager</t>
+  </si>
+  <si>
+    <t>Commentaar toevoegen voor RijbewijsTypeManager</t>
   </si>
 </sst>
 </file>
@@ -343,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -423,46 +429,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,6 +446,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
-  <dimension ref="B3:M31"/>
+  <dimension ref="B3:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,19 +853,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="34"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
@@ -879,16 +891,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="35" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="45">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -902,12 +914,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="33"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -919,14 +931,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="33"/>
-      <c r="F7" s="45" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="33" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -947,7 +959,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="36"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -968,7 +980,7 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="36"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -976,7 +988,7 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="40" t="s">
@@ -985,7 +997,7 @@
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="37">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -995,12 +1007,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="38"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1008,12 +1020,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="39"/>
-      <c r="F12" s="42"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="31"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -1030,7 +1042,7 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1047,15 +1059,15 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="18"/>
-      <c r="M14" s="44"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="40" t="s">
@@ -1064,18 +1076,18 @@
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="29"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="37">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1083,7 +1095,7 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="48" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="40" t="s">
@@ -1092,24 +1104,24 @@
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="29"/>
-      <c r="F18" s="42"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="42" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="40" t="s">
@@ -1118,18 +1130,18 @@
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="38"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="33"/>
-      <c r="F20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="38"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1146,7 +1158,7 @@
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="32"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1154,7 +1166,7 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="40" t="s">
@@ -1163,7 +1175,7 @@
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="37">
         <v>44497</v>
       </c>
       <c r="I22" s="27" t="s">
@@ -1173,111 +1185,127 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="39"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="31"/>
+      <c r="H23" s="38"/>
       <c r="I23" s="27"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="27"/>
-      <c r="F24" s="28" t="s">
-        <v>7</v>
-      </c>
+      <c r="F24" s="47"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="38"/>
       <c r="I24" s="27"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="27"/>
-      <c r="F25" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="43" t="s">
+      <c r="F25" s="47"/>
+      <c r="G25" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="31"/>
+      <c r="H25" s="38"/>
       <c r="I25" s="27"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="27"/>
-      <c r="F26" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="43" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="27"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="4"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="4"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="23"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="30"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="4"/>
-      <c r="F29" s="45"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="23"/>
-    </row>
-    <row r="30" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="46"/>
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="46"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="34"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="6:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E5:E7"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="H5:H9"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="H16:H21"/>
-    <mergeCell ref="H10:H15"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F22:F28"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I30">
+  <conditionalFormatting sqref="I5:I32">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23758455-5CA6-4957-9F5A-6CD8172DCA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB9635E-0223-4538-8810-389CF3EFA7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -349,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -429,9 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,12 +444,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -462,28 +480,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,39 +832,39 @@
   <dimension ref="B3:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="62.5703125" customWidth="1"/>
+    <col min="13" max="13" width="62.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="43"/>
-    </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
@@ -890,17 +887,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="42" t="s">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="37" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="36">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -913,13 +910,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="42"/>
-      <c r="F6" s="36"/>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="46"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="45"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -930,15 +927,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="42"/>
-      <c r="F7" s="33" t="s">
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="46"/>
+      <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="45"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -949,7 +946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E8" s="15" t="s">
         <v>23</v>
       </c>
@@ -959,7 +956,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="45"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -970,7 +967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
@@ -980,15 +977,15 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="45"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="19"/>
     </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="35" t="s">
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="37" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="40" t="s">
@@ -997,7 +994,7 @@
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="43">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1006,33 +1003,33 @@
       <c r="L10" s="18"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="38"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="44"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="19"/>
     </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="36"/>
-      <c r="F12" s="41"/>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="39"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="19"/>
     </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="17" t="s">
         <v>23</v>
       </c>
@@ -1042,14 +1039,14 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="44"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="19"/>
     </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" s="17" t="s">
         <v>25</v>
       </c>
@@ -1059,15 +1056,15 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="44"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="18"/>
-      <c r="M14" s="32"/>
-    </row>
-    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="48" t="s">
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="47" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="40" t="s">
@@ -1076,26 +1073,26 @@
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="39"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="48"/>
-      <c r="F16" s="41"/>
+    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="47"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="43">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="48" t="s">
+    <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="47" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="40" t="s">
@@ -1104,24 +1101,24 @@
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="44"/>
       <c r="I17" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="48"/>
-      <c r="F18" s="41"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="47"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="46" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="40" t="s">
@@ -1130,25 +1127,25 @@
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="44"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="42"/>
-      <c r="F20" s="41"/>
+    <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="46"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="38"/>
+      <c r="H20" s="44"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E21" s="21" t="s">
         <v>4</v>
       </c>
@@ -1158,15 +1155,15 @@
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="35" t="s">
+    <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="37" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="40" t="s">
@@ -1175,7 +1172,7 @@
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="43">
         <v>44497</v>
       </c>
       <c r="I22" s="27" t="s">
@@ -1184,117 +1181,115 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="36"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="31" t="s">
+    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="39"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="38"/>
+      <c r="H23" s="44"/>
       <c r="I23" s="27"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="27"/>
-      <c r="F24" s="47"/>
+    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="41"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="38"/>
+      <c r="H24" s="44"/>
       <c r="I24" s="27"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="27"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="31" t="s">
+    <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="41"/>
+      <c r="G25" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="38"/>
+      <c r="H25" s="44"/>
       <c r="I25" s="27"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="27"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="31" t="s">
+    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="39"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="39"/>
+      <c r="H26" s="44"/>
       <c r="I26" s="27"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="30"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="31" t="s">
+    <row r="27" spans="5:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="41"/>
+      <c r="G27" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="30"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="31" t="s">
+    <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="39"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="29"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E29" s="4"/>
-      <c r="F29" s="33"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="16" t="s">
         <v>39</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="4"/>
-      <c r="F30" s="33"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="16" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="4"/>
-      <c r="F31" s="33"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="16" t="s">
         <v>41</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="34"/>
+    <row r="32" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="33"/>
       <c r="I32" s="26"/>
     </row>
-    <row r="33" spans="6:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="34"/>
+    <row r="33" spans="6:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
+  <mergeCells count="20">
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H26"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E15:E16"/>
@@ -1304,6 +1299,16 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="H22:H28"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I32">
     <cfRule type="expression" dxfId="3" priority="1">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\FleetMangementApp\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB9635E-0223-4538-8810-389CF3EFA7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223E5DD7-5121-4C4B-BDB1-033E78C7A319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -349,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -444,6 +444,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,37 +489,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -831,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
   <dimension ref="B3:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,19 +856,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="34"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
@@ -888,16 +894,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="48">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -911,12 +917,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="46"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -928,14 +934,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="46"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="48"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -956,7 +962,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="36"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -977,7 +983,7 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="36"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -985,16 +991,16 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="38" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="42">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1004,12 +1010,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="38"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="44"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1017,12 +1023,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="39"/>
-      <c r="F12" s="42"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -1039,7 +1045,7 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="44"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1056,7 +1062,7 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="44"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1064,27 +1070,27 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="45"/>
+      <c r="H15" s="44"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="47"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="42">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1092,53 +1098,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="38" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="44"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="47"/>
-      <c r="F18" s="42"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="44"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="38" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="44"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="46"/>
-      <c r="F20" s="42"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="44"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1155,7 +1161,7 @@
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="45"/>
+      <c r="H21" s="44"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1163,16 +1169,16 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="42">
         <v>44497</v>
       </c>
       <c r="I22" s="27" t="s">
@@ -1182,12 +1188,12 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="39"/>
-      <c r="F23" s="41"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="44"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="27"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1196,59 +1202,67 @@
       <c r="E24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="27"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="41"/>
+      <c r="E25" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="45"/>
       <c r="G25" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="27"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="39"/>
-      <c r="F26" s="41"/>
+      <c r="E26" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="45"/>
       <c r="G26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="44"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="27"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="5:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="41"/>
+      <c r="E27" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="45"/>
       <c r="G27" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="44"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="29"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="39"/>
-      <c r="F28" s="42"/>
+      <c r="E28" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="39"/>
       <c r="G28" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="45"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="29"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1288,7 +1302,14 @@
       <c r="F33" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="18">
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E5:E7"/>
@@ -1299,16 +1320,7 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
     <mergeCell ref="H22:H28"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I32">
     <cfRule type="expression" dxfId="3" priority="1">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223E5DD7-5121-4C4B-BDB1-033E78C7A319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1FF428-E7B2-480D-BA8E-967F7AC51870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>Commentaar toevoegen voor RijbewijsTypeManager</t>
+  </si>
+  <si>
+    <t>Implementeren BrandstofTypeRepo</t>
+  </si>
+  <si>
+    <t>Implementeren RijbewijsTypeRepo</t>
+  </si>
+  <si>
+    <t>Implementeren WagenTypeRepo</t>
   </si>
 </sst>
 </file>
@@ -349,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -450,46 +459,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
-  <dimension ref="B3:M33"/>
+  <dimension ref="B3:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,19 +877,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="46"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
@@ -894,16 +915,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="43" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="42">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -917,12 +938,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="40"/>
-      <c r="F6" s="37"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -934,14 +955,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="40"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="48"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -962,7 +983,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="48"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -983,7 +1004,7 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="48"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -991,16 +1012,16 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="46" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="49">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1010,12 +1031,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="49"/>
-      <c r="F11" s="45"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="43"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1023,12 +1044,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="37"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="43"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -1045,7 +1066,7 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="43"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1062,7 +1083,7 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="43"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1070,27 +1091,27 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="46" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="41"/>
-      <c r="F16" s="39"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="49">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1098,53 +1119,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="46" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="43"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="41"/>
-      <c r="F18" s="39"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="43"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="46" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="43"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="43"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1161,7 +1182,7 @@
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="44"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1169,16 +1190,16 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="46" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="49">
         <v>44497</v>
       </c>
       <c r="I22" s="27" t="s">
@@ -1188,12 +1209,12 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="37"/>
-      <c r="F23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="43"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="27"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1202,11 +1223,11 @@
       <c r="E24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="45"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="43"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="27" t="s">
         <v>11</v>
       </c>
@@ -1217,11 +1238,11 @@
       <c r="E25" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="45"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="43"/>
+      <c r="H25" s="50"/>
       <c r="I25" s="27" t="s">
         <v>10</v>
       </c>
@@ -1232,11 +1253,11 @@
       <c r="E26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="45"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="43"/>
+      <c r="H26" s="50"/>
       <c r="I26" s="27"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1245,11 +1266,11 @@
       <c r="E27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="45"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="43"/>
+      <c r="H27" s="50"/>
       <c r="I27" s="29"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1258,58 +1279,90 @@
       <c r="E28" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="39"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="44"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="29"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="4"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="16" t="s">
+    <row r="29" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="37"/>
+      <c r="G30" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="37"/>
+      <c r="G31" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="4"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="23"/>
-    </row>
-    <row r="30" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="4"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="16" t="s">
+      <c r="H32" s="25"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="4"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="23"/>
-    </row>
-    <row r="31" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="4"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="16" t="s">
+      <c r="H33" s="24"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="4"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="33"/>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="6:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="33"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="33"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E5:E7"/>
@@ -1321,8 +1374,15 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
     <mergeCell ref="H22:H28"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I32">
+  <conditionalFormatting sqref="I5:I35">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\FleetMangementApp\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1FF428-E7B2-480D-BA8E-967F7AC51870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC530CB3-CC7E-4872-9A7F-82BBA0330705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -471,6 +471,36 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,37 +510,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
   <dimension ref="B3:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -877,19 +877,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
@@ -915,16 +915,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="40" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="52">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -938,12 +938,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="52"/>
-      <c r="F6" s="45"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="42"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -955,14 +955,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="52"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="52"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="42"/>
+      <c r="H8" s="52"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1004,7 +1004,7 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="42"/>
+      <c r="H9" s="52"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -1012,16 +1012,16 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="42" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="46">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1031,12 +1031,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="44"/>
-      <c r="F11" s="47"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1044,12 +1044,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="45"/>
-      <c r="F12" s="48"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="50"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="50"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1083,7 +1083,7 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="50"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1091,27 +1091,27 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="42" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="53"/>
-      <c r="F16" s="48"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="46">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1119,53 +1119,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="42" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="50"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="53"/>
-      <c r="F18" s="48"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="50"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="42" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="50"/>
+      <c r="H19" s="47"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="52"/>
-      <c r="F20" s="48"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="50"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="51"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1190,16 +1190,16 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="42" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="46">
         <v>44497</v>
       </c>
       <c r="I22" s="27" t="s">
@@ -1209,12 +1209,12 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="45"/>
-      <c r="F23" s="47"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="27"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1223,11 +1223,11 @@
       <c r="E24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="50"/>
+      <c r="H24" s="47"/>
       <c r="I24" s="27" t="s">
         <v>11</v>
       </c>
@@ -1238,13 +1238,13 @@
       <c r="E25" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="47"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="50"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1253,12 +1253,14 @@
       <c r="E26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="27"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
@@ -1266,12 +1268,14 @@
       <c r="E27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="29"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="29" t="s">
+        <v>11</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
@@ -1279,12 +1283,14 @@
       <c r="E28" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="48"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="29"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="29" t="s">
+        <v>11</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
@@ -1363,6 +1369,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E5:E7"/>
@@ -1374,13 +1387,6 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
     <mergeCell ref="H22:H28"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I35">
     <cfRule type="expression" dxfId="3" priority="1">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC530CB3-CC7E-4872-9A7F-82BBA0330705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE039FC-DB10-48B6-8214-0236021EC07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -471,46 +471,46 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,7 +859,7 @@
   <dimension ref="B3:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B16" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -877,19 +877,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
@@ -915,16 +915,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="43" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="42">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -938,12 +938,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="44"/>
-      <c r="F6" s="41"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="52"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -955,14 +955,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="44"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="52"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1004,7 +1004,7 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="52"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -1012,16 +1012,16 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="46" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="49">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1031,12 +1031,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="53"/>
-      <c r="F11" s="49"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="47"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1044,12 +1044,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="41"/>
-      <c r="F12" s="43"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="47"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1083,7 +1083,7 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="47"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1091,27 +1091,27 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="46" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="48"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="45"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="49">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1119,53 +1119,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="46" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="47"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="45"/>
-      <c r="F18" s="43"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="47"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="46" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="47"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="44"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="47"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="48"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1190,16 +1190,16 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="46" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="49">
         <v>44497</v>
       </c>
       <c r="I22" s="27" t="s">
@@ -1209,12 +1209,12 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="41"/>
-      <c r="F23" s="49"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="27"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1223,11 +1223,11 @@
       <c r="E24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="47"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="27" t="s">
         <v>11</v>
       </c>
@@ -1238,11 +1238,11 @@
       <c r="E25" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="49"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="47"/>
+      <c r="H25" s="50"/>
       <c r="I25" s="27" t="s">
         <v>11</v>
       </c>
@@ -1253,11 +1253,11 @@
       <c r="E26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="49"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="47"/>
+      <c r="H26" s="50"/>
       <c r="I26" s="27" t="s">
         <v>11</v>
       </c>
@@ -1268,11 +1268,11 @@
       <c r="E27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="49"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="50"/>
       <c r="I27" s="29" t="s">
         <v>11</v>
       </c>
@@ -1283,11 +1283,11 @@
       <c r="E28" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="43"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="48"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="29" t="s">
         <v>11</v>
       </c>
@@ -1303,7 +1303,9 @@
         <v>55</v>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="38"/>
+      <c r="I29" s="38" t="s">
+        <v>10</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
@@ -1369,13 +1371,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E5:E7"/>
@@ -1387,6 +1382,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
     <mergeCell ref="H22:H28"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I35">
     <cfRule type="expression" dxfId="3" priority="1">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE039FC-DB10-48B6-8214-0236021EC07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89233BE-2BA3-449F-A9A9-CA66931D12D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -358,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -468,9 +468,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,37 +507,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,40 +855,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
   <dimension ref="B3:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1"/>
-    <col min="7" max="7" width="42.88671875" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="62.5546875" customWidth="1"/>
+    <col min="13" max="13" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="40"/>
-    </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="49"/>
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
@@ -914,17 +911,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="52" t="s">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="39" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="51">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -937,13 +934,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="52"/>
-      <c r="F6" s="45"/>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="43"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="42"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -954,15 +951,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="52"/>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="43"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="51"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -973,7 +970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="15" t="s">
         <v>23</v>
       </c>
@@ -983,7 +980,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="42"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -994,7 +991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
@@ -1004,24 +1001,24 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="42"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="19"/>
     </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="43" t="s">
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="41" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="45">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1030,33 +1027,33 @@
       <c r="L10" s="18"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="44"/>
-      <c r="F11" s="47"/>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="52"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="19"/>
     </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="45"/>
-      <c r="F12" s="48"/>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="40"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="50"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="19"/>
     </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="17" t="s">
         <v>23</v>
       </c>
@@ -1066,14 +1063,14 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="50"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="19"/>
     </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="17" t="s">
         <v>25</v>
       </c>
@@ -1083,96 +1080,96 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="50"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="31"/>
     </row>
-    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="53" t="s">
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="41" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="53"/>
-      <c r="F16" s="48"/>
+    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="44"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="45">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="53" t="s">
+    <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="41" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="50"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="53"/>
-      <c r="F18" s="48"/>
+    <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="44"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="50"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="52" t="s">
+    <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="41" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="50"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="52"/>
-      <c r="F20" s="48"/>
+    <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="43"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="50"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="21" t="s">
         <v>4</v>
       </c>
@@ -1182,119 +1179,119 @@
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="51"/>
+      <c r="H21" s="47"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="43" t="s">
+    <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="41" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="45">
         <v>44497</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="45"/>
-      <c r="F23" s="47"/>
+    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="40"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="27"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="50"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="27" t="s">
         <v>11</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="47"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="50"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="27" t="s">
         <v>11</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="50"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="27" t="s">
         <v>11</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="5:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="48"/>
       <c r="G27" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="50"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="29" t="s">
         <v>11</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="48"/>
+      <c r="F28" s="42"/>
       <c r="G28" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="51"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="29" t="s">
         <v>11</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="36" t="s">
         <v>23</v>
       </c>
@@ -1302,14 +1299,14 @@
       <c r="G29" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="38" t="s">
         <v>10</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="36" t="s">
         <v>25</v>
       </c>
@@ -1317,12 +1314,12 @@
       <c r="G30" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="46"/>
       <c r="I30" s="38"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="36" t="s">
         <v>4</v>
       </c>
@@ -1330,12 +1327,14 @@
       <c r="G31" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="38"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="4"/>
       <c r="F32" s="32"/>
       <c r="G32" s="16" t="s">
@@ -1344,7 +1343,7 @@
       <c r="H32" s="25"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
       <c r="F33" s="32"/>
       <c r="G33" s="16" t="s">
@@ -1353,7 +1352,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="4"/>
       <c r="F34" s="32"/>
       <c r="G34" s="16" t="s">
@@ -1362,15 +1361,22 @@
       <c r="H34" s="24"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="33"/>
       <c r="I35" s="26"/>
     </row>
-    <row r="36" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F36" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E5:E7"/>
@@ -1381,14 +1387,7 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
-    <mergeCell ref="H22:H28"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H22:H31"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I35">
     <cfRule type="expression" dxfId="3" priority="1">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89233BE-2BA3-449F-A9A9-CA66931D12D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37B97C-09CA-4515-8224-2C2BC71F6AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -468,46 +468,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,7 +856,7 @@
   <dimension ref="B3:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,19 +874,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
@@ -912,16 +912,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="42" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="41">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -935,12 +935,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="43"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="51"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -952,14 +952,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="43"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="51"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="51"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -1009,16 +1009,16 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="45" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="48">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1028,12 +1028,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="52"/>
-      <c r="F11" s="48"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="46"/>
+      <c r="H11" s="49"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1041,12 +1041,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="40"/>
-      <c r="F12" s="42"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="49"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -1063,7 +1063,7 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="46"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="46"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1088,27 +1088,27 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="45" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="47"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="44"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="48">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1116,53 +1116,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="45" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="46"/>
+      <c r="H17" s="49"/>
       <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="44"/>
-      <c r="F18" s="42"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="46"/>
+      <c r="H18" s="49"/>
       <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="45" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="H19" s="49"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="43"/>
-      <c r="F20" s="42"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="49"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="47"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1187,16 +1187,16 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="45" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="48">
         <v>44497</v>
       </c>
       <c r="I22" s="27" t="s">
@@ -1206,13 +1206,15 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="40"/>
-      <c r="F23" s="48"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="27"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
@@ -1220,11 +1222,11 @@
       <c r="E24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="48"/>
+      <c r="F24" s="46"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="46"/>
+      <c r="H24" s="49"/>
       <c r="I24" s="27" t="s">
         <v>11</v>
       </c>
@@ -1235,11 +1237,11 @@
       <c r="E25" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="48"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="46"/>
+      <c r="H25" s="49"/>
       <c r="I25" s="27" t="s">
         <v>11</v>
       </c>
@@ -1250,11 +1252,11 @@
       <c r="E26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="48"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="46"/>
+      <c r="H26" s="49"/>
       <c r="I26" s="27" t="s">
         <v>11</v>
       </c>
@@ -1265,11 +1267,11 @@
       <c r="E27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="48"/>
+      <c r="F27" s="46"/>
       <c r="G27" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="46"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="29" t="s">
         <v>11</v>
       </c>
@@ -1280,11 +1282,11 @@
       <c r="E28" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="46"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="29" t="s">
         <v>11</v>
       </c>
@@ -1295,11 +1297,13 @@
       <c r="E29" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="37"/>
+      <c r="F29" s="37" t="s">
+        <v>7</v>
+      </c>
       <c r="G29" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="46"/>
+      <c r="H29" s="49"/>
       <c r="I29" s="38" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1318,10 @@
       <c r="G30" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="46"/>
-      <c r="I30" s="38"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="38" t="s">
+        <v>10</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
@@ -1327,7 +1333,7 @@
       <c r="G31" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="47"/>
+      <c r="H31" s="50"/>
       <c r="I31" s="38" t="s">
         <v>22</v>
       </c>
@@ -1370,13 +1376,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E5:E7"/>
@@ -1388,6 +1387,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
     <mergeCell ref="H22:H31"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I35">
     <cfRule type="expression" dxfId="3" priority="1">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE039FC-DB10-48B6-8214-0236021EC07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E0CFA3-F1E7-430E-A11F-933FFA87F4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Implementeren WagenTypeRepo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //check nodig</t>
   </si>
 </sst>
 </file>
@@ -471,6 +474,36 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,37 +513,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
   <dimension ref="B3:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -877,19 +880,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
@@ -915,16 +918,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="40" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="52">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -938,12 +941,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="52"/>
-      <c r="F6" s="45"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="42"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -955,14 +958,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="52"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="52"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -983,7 +986,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="42"/>
+      <c r="H8" s="52"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1004,7 +1007,7 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="42"/>
+      <c r="H9" s="52"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -1012,16 +1015,16 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="42" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="46">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1031,12 +1034,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="44"/>
-      <c r="F11" s="47"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1044,12 +1047,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="45"/>
-      <c r="F12" s="48"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="50"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -1066,7 +1069,7 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="50"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1083,7 +1086,7 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="50"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1091,27 +1094,27 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="42" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="53"/>
-      <c r="F16" s="48"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="46">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1119,53 +1122,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="42" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="50"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="53"/>
-      <c r="F18" s="48"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="50"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="42" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="50"/>
+      <c r="H19" s="47"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="52"/>
-      <c r="F20" s="48"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="50"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1182,7 +1185,7 @@
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="51"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1190,16 +1193,16 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="42" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="46">
         <v>44497</v>
       </c>
       <c r="I22" s="27" t="s">
@@ -1209,12 +1212,12 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="45"/>
-      <c r="F23" s="47"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="27"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1223,11 +1226,11 @@
       <c r="E24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="50"/>
+      <c r="H24" s="47"/>
       <c r="I24" s="27" t="s">
         <v>11</v>
       </c>
@@ -1238,11 +1241,11 @@
       <c r="E25" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="47"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="50"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="27" t="s">
         <v>11</v>
       </c>
@@ -1253,11 +1256,11 @@
       <c r="E26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="50"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="27" t="s">
         <v>11</v>
       </c>
@@ -1268,11 +1271,11 @@
       <c r="E27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="50"/>
+      <c r="H27" s="47"/>
       <c r="I27" s="29" t="s">
         <v>11</v>
       </c>
@@ -1283,11 +1286,11 @@
       <c r="E28" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="48"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="51"/>
+      <c r="H28" s="48"/>
       <c r="I28" s="29" t="s">
         <v>11</v>
       </c>
@@ -1304,9 +1307,11 @@
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1318,7 +1323,9 @@
         <v>56</v>
       </c>
       <c r="H30" s="39"/>
-      <c r="I30" s="38"/>
+      <c r="I30" s="38" t="s">
+        <v>10</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
@@ -1331,7 +1338,9 @@
         <v>57</v>
       </c>
       <c r="H31" s="39"/>
-      <c r="I31" s="38"/>
+      <c r="I31" s="38" t="s">
+        <v>10</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
@@ -1371,6 +1380,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E5:E7"/>
@@ -1382,13 +1398,6 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
     <mergeCell ref="H22:H28"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I35">
     <cfRule type="expression" dxfId="3" priority="1">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37B97C-09CA-4515-8224-2C2BC71F6AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B8922E-11AA-4B1A-8AF2-99A62B3FC035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -358,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -468,6 +468,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,44 +519,42 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -853,42 +893,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
-  <dimension ref="B3:M36"/>
+  <dimension ref="B3:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="62.5703125" customWidth="1"/>
+    <col min="13" max="13" width="62.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="39"/>
-    </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="53"/>
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
@@ -911,17 +951,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="51" t="s">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="43" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="55">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -934,13 +974,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="51"/>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="47"/>
       <c r="F6" s="44"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="41"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -951,15 +991,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="51"/>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="47"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -970,7 +1010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E8" s="15" t="s">
         <v>23</v>
       </c>
@@ -980,7 +1020,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="41"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -991,7 +1031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
@@ -1001,15 +1041,15 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="41"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="19"/>
     </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="42" t="s">
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="45" t="s">
@@ -1018,7 +1058,7 @@
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="49">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1027,33 +1067,33 @@
       <c r="L10" s="18"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="43"/>
-      <c r="F11" s="46"/>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="56"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="49"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="19"/>
     </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E12" s="44"/>
-      <c r="F12" s="47"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="49"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="19"/>
     </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="17" t="s">
         <v>23</v>
       </c>
@@ -1063,14 +1103,14 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="49"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="19"/>
     </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" s="17" t="s">
         <v>25</v>
       </c>
@@ -1080,15 +1120,15 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="49"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="31"/>
     </row>
-    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="52" t="s">
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="45" t="s">
@@ -1097,26 +1137,26 @@
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="50"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="52"/>
-      <c r="F16" s="47"/>
+    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="48"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="49">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="52" t="s">
+    <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="48" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="45" t="s">
@@ -1125,24 +1165,24 @@
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="49"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="52"/>
-      <c r="F18" s="47"/>
+    <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="48"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="49"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="51" t="s">
+    <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="47" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="45" t="s">
@@ -1151,25 +1191,25 @@
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="49"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="51"/>
-      <c r="F20" s="47"/>
+    <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="47"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="49"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E21" s="21" t="s">
         <v>4</v>
       </c>
@@ -1179,15 +1219,15 @@
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="50"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="42" t="s">
+    <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="45" t="s">
@@ -1196,7 +1236,7 @@
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="49">
         <v>44497</v>
       </c>
       <c r="I22" s="27" t="s">
@@ -1205,95 +1245,95 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E23" s="44"/>
-      <c r="F23" s="46"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="49"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="27" t="s">
         <v>11</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="46"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="49"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="27" t="s">
         <v>11</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="46"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="49"/>
+      <c r="H25" s="50"/>
       <c r="I25" s="27" t="s">
         <v>11</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="46"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="49"/>
+      <c r="H26" s="50"/>
       <c r="I26" s="27" t="s">
         <v>11</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="5:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:11" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="46"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="49"/>
+      <c r="H27" s="50"/>
       <c r="I27" s="29" t="s">
         <v>11</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="47"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="49"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="29" t="s">
         <v>11</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E29" s="36" t="s">
         <v>23</v>
       </c>
@@ -1303,14 +1343,14 @@
       <c r="G29" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="49"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="38" t="s">
         <v>10</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="36" t="s">
         <v>25</v>
       </c>
@@ -1318,14 +1358,14 @@
       <c r="G30" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="49"/>
+      <c r="H30" s="50"/>
       <c r="I30" s="38" t="s">
         <v>10</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="36" t="s">
         <v>4</v>
       </c>
@@ -1333,49 +1373,69 @@
       <c r="G31" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="50"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="38" t="s">
         <v>22</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="4"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="40"/>
+      <c r="G32" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="4"/>
       <c r="F33" s="32"/>
       <c r="G33" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="H33" s="25"/>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4"/>
       <c r="F34" s="32"/>
       <c r="G34" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="33"/>
-      <c r="I35" s="26"/>
-    </row>
-    <row r="36" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="4"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F36" s="33"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E5:E7"/>
@@ -1387,26 +1447,33 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
     <mergeCell ref="H22:H31"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I35">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="I5:I31 I33:I36">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$I5="Stuck"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$I5="Merged"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$I5="Pending"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>$I5="InProgress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$I32="Stuck"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$I32="Merged"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$I32="Pending"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$I5="InProgress"</formula>
+      <formula>$I32="InProgress"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B8922E-11AA-4B1A-8AF2-99A62B3FC035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0A86D9-02E5-488C-8E57-F74CD298A7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -358,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -474,59 +474,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -893,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
-  <dimension ref="B3:M37"/>
+  <dimension ref="B3:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,19 +976,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
@@ -952,16 +1014,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="48" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="47">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -975,12 +1037,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="47"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="55"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -992,14 +1054,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="47"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="55"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -1020,7 +1082,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="55"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +1103,7 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="55"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -1049,16 +1111,16 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="51" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="54">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1068,12 +1130,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="56"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="52"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1081,12 +1143,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="44"/>
-      <c r="F12" s="46"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="50"/>
+      <c r="H12" s="55"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -1103,7 +1165,7 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="50"/>
+      <c r="H13" s="55"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1120,7 +1182,7 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="50"/>
+      <c r="H14" s="55"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1128,27 +1190,27 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="51" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="56"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="48"/>
-      <c r="F16" s="46"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="54">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1156,53 +1218,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="51" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="50"/>
+      <c r="H17" s="55"/>
       <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="48"/>
-      <c r="F18" s="46"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="50"/>
+      <c r="H18" s="55"/>
       <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="51" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="50"/>
+      <c r="H19" s="55"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="47"/>
-      <c r="F20" s="46"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="50"/>
+      <c r="H20" s="55"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1219,7 +1281,7 @@
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="51"/>
+      <c r="H21" s="56"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1227,16 +1289,16 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="51" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="54">
         <v>44497</v>
       </c>
       <c r="I22" s="27" t="s">
@@ -1246,12 +1308,12 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="44"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="52"/>
       <c r="G23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="27" t="s">
         <v>11</v>
       </c>
@@ -1266,7 +1328,7 @@
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="50"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="27" t="s">
         <v>11</v>
       </c>
@@ -1281,7 +1343,7 @@
       <c r="G25" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="50"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="27" t="s">
         <v>11</v>
       </c>
@@ -1296,7 +1358,7 @@
       <c r="G26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="50"/>
+      <c r="H26" s="55"/>
       <c r="I26" s="27" t="s">
         <v>11</v>
       </c>
@@ -1311,7 +1373,7 @@
       <c r="G27" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="50"/>
+      <c r="H27" s="55"/>
       <c r="I27" s="29" t="s">
         <v>11</v>
       </c>
@@ -1322,11 +1384,11 @@
       <c r="E28" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="46"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="50"/>
+      <c r="H28" s="55"/>
       <c r="I28" s="29" t="s">
         <v>11</v>
       </c>
@@ -1343,9 +1405,9 @@
       <c r="G29" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="38" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1358,9 +1420,9 @@
       <c r="G30" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="50"/>
+      <c r="H30" s="55"/>
       <c r="I30" s="38" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1373,7 +1435,7 @@
       <c r="G31" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="51"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="38" t="s">
         <v>22</v>
       </c>
@@ -1381,61 +1443,83 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="40"/>
+      <c r="E32" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="43"/>
       <c r="G32" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
+        <v>56</v>
+      </c>
+      <c r="H32" s="54">
+        <v>44473</v>
+      </c>
+      <c r="I32" s="44"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="4"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="4"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="55"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="56"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E35" s="4"/>
       <c r="F35" s="32"/>
       <c r="G35" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="4"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="24"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="4"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="33"/>
-      <c r="I36" s="26"/>
-    </row>
-    <row r="37" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="33"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="33"/>
+      <c r="I38" s="26"/>
+    </row>
+    <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
+  <mergeCells count="19">
+    <mergeCell ref="H32:H34"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E5:E7"/>
@@ -1447,19 +1531,54 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
     <mergeCell ref="H22:H31"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I31 I33:I36">
-    <cfRule type="expression" dxfId="7" priority="5">
+  <conditionalFormatting sqref="I5:I31 I35:I38">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>$I5="Stuck"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$I5="Merged"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$I5="Pending"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>$I5="InProgress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>$I33="Stuck"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>$I33="Merged"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$I33="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>$I33="InProgress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$I34="Stuck"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$I34="Merged"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$I34="Pending"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="4" priority="8">
-      <formula>$I5="InProgress"</formula>
+      <formula>$I34="InProgress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\FleetMangementApp\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0A86D9-02E5-488C-8E57-F74CD298A7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A95B14-A900-479D-8653-F617AC5D3CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>Implementeren WagenTypeRepo</t>
+  </si>
+  <si>
+    <t>branch verwijderd</t>
+  </si>
+  <si>
+    <t>Implementatie Brandstoftype</t>
+  </si>
+  <si>
+    <t>Implementatie BestuurderManager</t>
   </si>
 </sst>
 </file>
@@ -358,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -426,9 +435,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,6 +492,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,38 +537,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
   <dimension ref="B3:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,19 +991,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="45"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
@@ -1014,16 +1029,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="49" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="58">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -1037,12 +1052,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="57"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="50"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="47"/>
+      <c r="H6" s="58"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -1054,14 +1069,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="57"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="47"/>
+      <c r="H7" s="58"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -1076,13 +1091,13 @@
       <c r="E8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="47"/>
+      <c r="H8" s="58"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1097,13 +1112,13 @@
       <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="47"/>
+      <c r="H9" s="58"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -1111,7 +1126,7 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="49" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="51" t="s">
@@ -1120,7 +1135,7 @@
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="46">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1130,12 +1145,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="49"/>
-      <c r="F11" s="52"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="55"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1144,11 +1159,11 @@
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E12" s="50"/>
-      <c r="F12" s="53"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="55"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -1159,13 +1174,13 @@
       <c r="E13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="55"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1176,21 +1191,21 @@
       <c r="E14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="27" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="55"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="18"/>
-      <c r="M14" s="31"/>
+      <c r="M14" s="30"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="54" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="51" t="s">
@@ -1199,18 +1214,18 @@
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="56"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="58"/>
-      <c r="F16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="46">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1218,7 +1233,7 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="54" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="51" t="s">
@@ -1227,24 +1242,24 @@
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="55"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="58"/>
-      <c r="F18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="55"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="51" t="s">
@@ -1253,18 +1268,18 @@
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="55"/>
+      <c r="H19" s="47"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="57"/>
-      <c r="F20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="55"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1275,13 +1290,13 @@
       <c r="E21" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="56"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1304,7 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="49" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="51" t="s">
@@ -1298,10 +1313,10 @@
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="54">
+      <c r="H22" s="46">
         <v>44497</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="26" t="s">
         <v>11</v>
       </c>
       <c r="J22" s="1"/>
@@ -1309,192 +1324,206 @@
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E23" s="50"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="30" t="s">
+      <c r="F23" s="55"/>
+      <c r="G23" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="27" t="s">
+      <c r="H23" s="47"/>
+      <c r="I23" s="26" t="s">
         <v>11</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="52"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="27" t="s">
+      <c r="H24" s="47"/>
+      <c r="I24" s="26" t="s">
         <v>11</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="30" t="s">
+      <c r="F25" s="55"/>
+      <c r="G25" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="27" t="s">
+      <c r="H25" s="47"/>
+      <c r="I25" s="26" t="s">
         <v>11</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="30" t="s">
+      <c r="F26" s="55"/>
+      <c r="G26" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="27" t="s">
+      <c r="H26" s="47"/>
+      <c r="I26" s="26" t="s">
         <v>11</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="5:11" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="30" t="s">
+      <c r="F27" s="55"/>
+      <c r="G27" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="55"/>
-      <c r="I27" s="29" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="28" t="s">
         <v>11</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="30" t="s">
+      <c r="F28" s="52"/>
+      <c r="G28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="29" t="s">
+      <c r="H28" s="47"/>
+      <c r="I28" s="28" t="s">
         <v>11</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="38" t="s">
+      <c r="H29" s="47"/>
+      <c r="I29" s="37" t="s">
         <v>22</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="30" t="s">
+      <c r="F30" s="36"/>
+      <c r="G30" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="38" t="s">
+      <c r="H30" s="47"/>
+      <c r="I30" s="37" t="s">
         <v>22</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="30" t="s">
+      <c r="F31" s="36"/>
+      <c r="G31" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="56"/>
-      <c r="I31" s="38" t="s">
+      <c r="H31" s="48"/>
+      <c r="I31" s="37" t="s">
         <v>22</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="30" t="s">
+      <c r="F32" s="42"/>
+      <c r="G32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="54">
+      <c r="H32" s="46">
         <v>44473</v>
       </c>
-      <c r="I32" s="44"/>
+      <c r="I32" s="43"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="30" t="s">
+      <c r="F33" s="39"/>
+      <c r="G33" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="41"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="40"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="30" t="s">
+      <c r="F34" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H34" s="56"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="1"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="4"/>
-      <c r="F35" s="32"/>
+      <c r="E35" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>60</v>
+      </c>
       <c r="G35" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="23"/>
+      <c r="H35" s="44">
+        <v>44473</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E36" s="4"/>
-      <c r="F36" s="32"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="16" t="s">
         <v>40</v>
       </c>
@@ -1503,7 +1532,7 @@
     </row>
     <row r="37" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="4"/>
-      <c r="F37" s="32"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="16" t="s">
         <v>41</v>
       </c>
@@ -1511,14 +1540,21 @@
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="33"/>
-      <c r="I38" s="26"/>
+      <c r="F38" s="32"/>
+      <c r="I38" s="25"/>
     </row>
     <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="33"/>
+      <c r="F39" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
     <mergeCell ref="H32:H34"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F15:F16"/>
@@ -1531,13 +1567,6 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
     <mergeCell ref="H22:H31"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I31 I35:I38">
     <cfRule type="expression" dxfId="15" priority="13">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A95B14-A900-479D-8653-F617AC5D3CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2464E9CA-CB97-4F61-A42E-E77A324AF999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -498,50 +498,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
   <dimension ref="B3:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -991,19 +991,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="56"/>
+      <c r="M3" s="47"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
@@ -1029,16 +1029,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="50" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="49">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -1052,12 +1052,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="53"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="58"/>
+      <c r="H6" s="49"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -1069,14 +1069,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="53"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="49"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="58"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="58"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -1126,16 +1126,16 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="53" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="56">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1145,12 +1145,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="59"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="47"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1158,12 +1158,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="50"/>
-      <c r="F12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="47"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="47"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1205,27 +1205,27 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="48"/>
+      <c r="H15" s="58"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="54"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="56">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1233,53 +1233,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="53" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="47"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="54"/>
-      <c r="F18" s="52"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="47"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="53" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="47"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="53"/>
-      <c r="F20" s="52"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="55"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="47"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="48"/>
+      <c r="H21" s="58"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1304,16 +1304,16 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="56">
         <v>44497</v>
       </c>
       <c r="I22" s="26" t="s">
@@ -1323,12 +1323,12 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="50"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="57"/>
       <c r="I23" s="26" t="s">
         <v>11</v>
       </c>
@@ -1339,11 +1339,11 @@
       <c r="E24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="55"/>
+      <c r="F24" s="54"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="47"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="26" t="s">
         <v>11</v>
       </c>
@@ -1354,11 +1354,11 @@
       <c r="E25" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="47"/>
+      <c r="H25" s="57"/>
       <c r="I25" s="26" t="s">
         <v>11</v>
       </c>
@@ -1369,11 +1369,11 @@
       <c r="E26" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="55"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="47"/>
+      <c r="H26" s="57"/>
       <c r="I26" s="26" t="s">
         <v>11</v>
       </c>
@@ -1384,11 +1384,11 @@
       <c r="E27" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="55"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="57"/>
       <c r="I27" s="28" t="s">
         <v>11</v>
       </c>
@@ -1399,11 +1399,11 @@
       <c r="E28" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="52"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="47"/>
+      <c r="H28" s="57"/>
       <c r="I28" s="28" t="s">
         <v>11</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="G29" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="47"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="37" t="s">
         <v>22</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="G30" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="47"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="37" t="s">
         <v>22</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="G31" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="48"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="37" t="s">
         <v>22</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="G32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="56">
         <v>44473</v>
       </c>
       <c r="I32" s="43"/>
@@ -1480,7 +1480,7 @@
       <c r="G33" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="47"/>
+      <c r="H33" s="57"/>
       <c r="I33" s="40"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1495,7 +1495,7 @@
       <c r="G34" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H34" s="48"/>
+      <c r="H34" s="58"/>
       <c r="I34" s="43" t="s">
         <v>11</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="46" t="s">
         <v>23</v>
       </c>
       <c r="F35" s="45" t="s">
@@ -1519,6 +1519,9 @@
       </c>
       <c r="I35" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1548,13 +1551,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
     <mergeCell ref="H32:H34"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F15:F16"/>
@@ -1567,6 +1563,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
     <mergeCell ref="H22:H31"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I31 I35:I38">
     <cfRule type="expression" dxfId="15" priority="13">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2464E9CA-CB97-4F61-A42E-E77A324AF999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4233A9D8-9F11-40B7-9A75-BFF71BE3A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>Implementatie BestuurderManager</t>
+  </si>
+  <si>
+    <t>Classe diagram aanpassen</t>
+  </si>
+  <si>
+    <t>Erd maken voor databank</t>
   </si>
 </sst>
 </file>
@@ -492,15 +498,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,37 +546,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
-  <dimension ref="B3:M39"/>
+  <dimension ref="B3:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -991,19 +997,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="47"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
@@ -1029,7 +1035,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="54" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="50" t="s">
@@ -1038,7 +1044,7 @@
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="59">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -1052,12 +1058,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="59"/>
-      <c r="F6" s="52"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="49"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -1069,14 +1075,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="59"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="49"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -1097,7 +1103,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="49"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1118,7 +1124,7 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="49"/>
+      <c r="H9" s="59"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -1129,13 +1135,13 @@
       <c r="E10" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="52" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="47">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1145,12 +1151,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="51"/>
-      <c r="F11" s="54"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="57"/>
+      <c r="H11" s="48"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1158,12 +1164,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="52"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="57"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -1180,7 +1186,7 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="57"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1197,7 +1203,7 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="57"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1205,27 +1211,27 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="52" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="60"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="47">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1233,53 +1239,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="52" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="57"/>
+      <c r="H17" s="48"/>
       <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="60"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="57"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="52" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="57"/>
+      <c r="H19" s="48"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="59"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="57"/>
+      <c r="H20" s="48"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1296,7 +1302,7 @@
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="58"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1307,13 +1313,13 @@
       <c r="E22" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="52" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="47">
         <v>44497</v>
       </c>
       <c r="I22" s="26" t="s">
@@ -1323,12 +1329,12 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="52"/>
-      <c r="F23" s="54"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="57"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="26" t="s">
         <v>11</v>
       </c>
@@ -1339,11 +1345,11 @@
       <c r="E24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="54"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="57"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="26" t="s">
         <v>11</v>
       </c>
@@ -1354,11 +1360,11 @@
       <c r="E25" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="54"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="57"/>
+      <c r="H25" s="48"/>
       <c r="I25" s="26" t="s">
         <v>11</v>
       </c>
@@ -1369,11 +1375,11 @@
       <c r="E26" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="54"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="57"/>
+      <c r="H26" s="48"/>
       <c r="I26" s="26" t="s">
         <v>11</v>
       </c>
@@ -1384,11 +1390,11 @@
       <c r="E27" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="54"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="57"/>
+      <c r="H27" s="48"/>
       <c r="I27" s="28" t="s">
         <v>11</v>
       </c>
@@ -1399,11 +1405,11 @@
       <c r="E28" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="57"/>
+      <c r="H28" s="48"/>
       <c r="I28" s="28" t="s">
         <v>11</v>
       </c>
@@ -1420,7 +1426,7 @@
       <c r="G29" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="57"/>
+      <c r="H29" s="48"/>
       <c r="I29" s="37" t="s">
         <v>22</v>
       </c>
@@ -1435,7 +1441,7 @@
       <c r="G30" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="57"/>
+      <c r="H30" s="48"/>
       <c r="I30" s="37" t="s">
         <v>22</v>
       </c>
@@ -1450,7 +1456,7 @@
       <c r="G31" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="37" t="s">
         <v>22</v>
       </c>
@@ -1465,7 +1471,7 @@
       <c r="G32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="56">
+      <c r="H32" s="47">
         <v>44473</v>
       </c>
       <c r="I32" s="43"/>
@@ -1480,8 +1486,10 @@
       <c r="G33" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="40"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="40" t="s">
+        <v>22</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
@@ -1495,7 +1503,7 @@
       <c r="G34" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H34" s="58"/>
+      <c r="H34" s="48"/>
       <c r="I34" s="43" t="s">
         <v>11</v>
       </c>
@@ -1505,18 +1513,16 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="44" t="s">
         <v>60</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="44">
-        <v>44473</v>
-      </c>
+      <c r="H35" s="48"/>
       <c r="I35" s="23" t="s">
         <v>10</v>
       </c>
@@ -1524,34 +1530,70 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="4"/>
-      <c r="F36" s="31"/>
+    <row r="36" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>7</v>
+      </c>
       <c r="G36" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="48"/>
+      <c r="I36" s="46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="49"/>
+      <c r="I37" s="46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="4"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="4"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="16" t="s">
+      <c r="H38" s="24"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="4"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="32"/>
-      <c r="I38" s="25"/>
-    </row>
-    <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="32"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="32"/>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E5:E7"/>
@@ -1563,15 +1605,9 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
     <mergeCell ref="H22:H31"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H32:H37"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I31 I35:I38">
+  <conditionalFormatting sqref="I5:I31 I35:I40">
     <cfRule type="expression" dxfId="15" priority="13">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4233A9D8-9F11-40B7-9A75-BFF71BE3A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4245E7D1-5630-4433-AAA6-985E3D3A979D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -507,6 +507,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,37 +543,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,7 +979,7 @@
   <dimension ref="B3:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B27" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,19 +997,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="57"/>
+      <c r="M3" s="47"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
@@ -1035,7 +1035,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="59" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="50" t="s">
@@ -1044,7 +1044,7 @@
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="49">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -1058,12 +1058,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="54"/>
-      <c r="F6" s="51"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="59"/>
+      <c r="H6" s="49"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -1075,14 +1075,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="54"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="59"/>
+      <c r="H7" s="49"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="59"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="59"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -1135,13 +1135,13 @@
       <c r="E10" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="53" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="56">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1151,12 +1151,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="60"/>
-      <c r="F11" s="56"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="48"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1164,12 +1164,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="51"/>
-      <c r="F12" s="53"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="48"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="48"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="48"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1211,27 +1211,27 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="49"/>
+      <c r="H15" s="58"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="55"/>
-      <c r="F16" s="53"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="56">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1239,53 +1239,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="53" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="48"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="55"/>
-      <c r="F18" s="53"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="48"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="53" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="48"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="54"/>
-      <c r="F20" s="53"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="55"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="48"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="49"/>
+      <c r="H21" s="58"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1313,13 +1313,13 @@
       <c r="E22" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="56">
         <v>44497</v>
       </c>
       <c r="I22" s="26" t="s">
@@ -1329,12 +1329,12 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="51"/>
-      <c r="F23" s="56"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="57"/>
       <c r="I23" s="26" t="s">
         <v>11</v>
       </c>
@@ -1345,11 +1345,11 @@
       <c r="E24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="56"/>
+      <c r="F24" s="54"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="48"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="26" t="s">
         <v>11</v>
       </c>
@@ -1360,11 +1360,11 @@
       <c r="E25" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="56"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="48"/>
+      <c r="H25" s="57"/>
       <c r="I25" s="26" t="s">
         <v>11</v>
       </c>
@@ -1375,11 +1375,11 @@
       <c r="E26" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="56"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="48"/>
+      <c r="H26" s="57"/>
       <c r="I26" s="26" t="s">
         <v>11</v>
       </c>
@@ -1390,11 +1390,11 @@
       <c r="E27" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="56"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="48"/>
+      <c r="H27" s="57"/>
       <c r="I27" s="28" t="s">
         <v>11</v>
       </c>
@@ -1405,11 +1405,11 @@
       <c r="E28" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="53"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="48"/>
+      <c r="H28" s="57"/>
       <c r="I28" s="28" t="s">
         <v>11</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="G29" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="37" t="s">
         <v>22</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="G30" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="48"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="37" t="s">
         <v>22</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="G31" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="49"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="37" t="s">
         <v>22</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="G32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="56">
         <v>44473</v>
       </c>
       <c r="I32" s="43"/>
@@ -1486,7 +1486,7 @@
       <c r="G33" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="48"/>
+      <c r="H33" s="57"/>
       <c r="I33" s="40" t="s">
         <v>22</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="G34" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H34" s="48"/>
+      <c r="H34" s="57"/>
       <c r="I34" s="43" t="s">
         <v>11</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="G35" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="48"/>
+      <c r="H35" s="57"/>
       <c r="I35" s="23" t="s">
         <v>10</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="G36" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="48"/>
+      <c r="H36" s="57"/>
       <c r="I36" s="46" t="s">
         <v>10</v>
       </c>
@@ -1555,9 +1555,9 @@
       <c r="G37" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="49"/>
+      <c r="H37" s="58"/>
       <c r="I37" s="46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1587,13 +1587,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H32:H37"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E5:E7"/>
@@ -1605,7 +1599,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
     <mergeCell ref="H22:H31"/>
-    <mergeCell ref="H32:H37"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I31 I35:I40">
     <cfRule type="expression" dxfId="15" priority="13">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4245E7D1-5630-4433-AAA6-985E3D3A979D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08102AC-7481-4CF5-A806-4CD463AD7525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03B4D898-FE95-45D7-8787-EBF54F774182}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
   <si>
     <t>Uitvoerder</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Implementeren WagenTypeRepo</t>
   </si>
   <si>
-    <t>branch verwijderd</t>
-  </si>
-  <si>
     <t>Implementatie Brandstoftype</t>
   </si>
   <si>
@@ -219,6 +216,24 @@
   </si>
   <si>
     <t>Erd maken voor databank</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Databank maken en scripts voorzien</t>
+  </si>
+  <si>
+    <t>Implementeren van VoertuigRepo</t>
+  </si>
+  <si>
+    <t>Implementeren van BestuurderRepo</t>
+  </si>
+  <si>
+    <t>Implementeren van TankkaartRepo</t>
   </si>
 </sst>
 </file>
@@ -373,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -447,9 +462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,12 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,6 +513,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,72 +558,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -976,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3A557-F323-4877-9594-F34AF42E7F43}">
-  <dimension ref="B3:M41"/>
+  <dimension ref="B3:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,19 +981,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="47"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
@@ -1035,16 +1019,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="49" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="58">
         <v>44476</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -1058,12 +1042,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="59"/>
-      <c r="F6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="49"/>
+      <c r="H6" s="58"/>
       <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
@@ -1075,14 +1059,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="59"/>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="44" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="49"/>
+      <c r="H7" s="58"/>
       <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
@@ -1097,13 +1081,13 @@
       <c r="E8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="45" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="49"/>
+      <c r="H8" s="58"/>
       <c r="I8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1118,13 +1102,13 @@
       <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="45" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="49"/>
+      <c r="H9" s="58"/>
       <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
@@ -1132,16 +1116,16 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="51" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="46">
         <v>44483</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1151,12 +1135,12 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="51"/>
-      <c r="F11" s="54"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="57"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1164,12 +1148,12 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="52"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="57"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
@@ -1180,13 +1164,13 @@
       <c r="E13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="45" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="57"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1197,41 +1181,41 @@
       <c r="E14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="45" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="57"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="18"/>
-      <c r="M14" s="30"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="51" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="60"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="46">
         <v>44490</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1239,53 +1223,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="51" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="57"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="60"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="57"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="51" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="57"/>
+      <c r="H19" s="47"/>
       <c r="I19" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="59"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="57"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="23" t="s">
         <v>11</v>
       </c>
@@ -1296,13 +1280,13 @@
       <c r="E21" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="45" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="58"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="23" t="s">
         <v>11</v>
       </c>
@@ -1310,16 +1294,16 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="51" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="46">
         <v>44497</v>
       </c>
       <c r="I22" s="26" t="s">
@@ -1329,12 +1313,12 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="52"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="29" t="s">
+      <c r="E23" s="50"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="57"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="26" t="s">
         <v>11</v>
       </c>
@@ -1345,11 +1329,11 @@
       <c r="E24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="54"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="57"/>
+      <c r="H24" s="47"/>
       <c r="I24" s="26" t="s">
         <v>11</v>
       </c>
@@ -1357,14 +1341,14 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="29" t="s">
+      <c r="F25" s="55"/>
+      <c r="G25" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="57"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="26" t="s">
         <v>11</v>
       </c>
@@ -1372,14 +1356,14 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="29" t="s">
+      <c r="F26" s="55"/>
+      <c r="G26" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="57"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="26" t="s">
         <v>11</v>
       </c>
@@ -1387,207 +1371,246 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="5:11" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="29" t="s">
+      <c r="F27" s="55"/>
+      <c r="G27" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="28" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="27" t="s">
         <v>11</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="29" t="s">
+      <c r="F28" s="52"/>
+      <c r="G28" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="57"/>
-      <c r="I28" s="28" t="s">
+      <c r="H28" s="47"/>
+      <c r="I28" s="27" t="s">
         <v>11</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="37" t="s">
+      <c r="H29" s="47"/>
+      <c r="I29" s="36" t="s">
         <v>22</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="29" t="s">
+      <c r="F30" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="57"/>
-      <c r="I30" s="37" t="s">
+      <c r="H30" s="47"/>
+      <c r="I30" s="36" t="s">
         <v>22</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="29" t="s">
+      <c r="F31" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="37" t="s">
+      <c r="H31" s="48"/>
+      <c r="I31" s="36" t="s">
         <v>22</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="29" t="s">
+      <c r="F32" s="39"/>
+      <c r="G32" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="56">
+      <c r="H32" s="46">
         <v>44473</v>
       </c>
-      <c r="I32" s="43"/>
+      <c r="I32" s="40" t="s">
+        <v>62</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="57"/>
+        <v>23</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="47"/>
       <c r="I33" s="40" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="41" t="s">
+    <row r="34" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="57"/>
-      <c r="I34" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K34" s="1"/>
+      <c r="G34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="47"/>
+      <c r="I34" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="44" t="s">
+      <c r="E35" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="47"/>
+      <c r="I35" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="57"/>
-      <c r="I35" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="57"/>
-      <c r="I36" s="46" t="s">
-        <v>10</v>
+      <c r="H36" s="47"/>
+      <c r="I36" s="43" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>7</v>
-      </c>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="58"/>
-      <c r="I37" s="46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="4"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="23"/>
+        <v>64</v>
+      </c>
+      <c r="H37" s="47"/>
+      <c r="I37" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="48"/>
+      <c r="I38" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E39" s="4"/>
-      <c r="F39" s="31"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="32"/>
-      <c r="I40" s="25"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="32"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="44"/>
+    </row>
+    <row r="42" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="4"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="44"/>
+    </row>
+    <row r="43" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="4"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="24"/>
+      <c r="I43" s="44"/>
+    </row>
+    <row r="44" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="31"/>
+      <c r="I44" s="25"/>
+    </row>
+    <row r="45" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="H32:H37"/>
+  <mergeCells count="21">
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H15"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E5:E7"/>
@@ -1599,54 +1622,36 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F22:F28"/>
     <mergeCell ref="H22:H31"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I31 I35:I40">
-    <cfRule type="expression" dxfId="15" priority="13">
+  <conditionalFormatting sqref="I5:I31 I34:I44">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$I5="Stuck"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$I5="Merged"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>$I5="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>$I5="InProgress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$I33="Stuck"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$I33="Merged"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$I33="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$I33="InProgress"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$I34="Stuck"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$I34="Merged"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$I34="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>$I34="InProgress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -5,18 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A9DC8E-F5B5-4335-AB9B-1342574A736E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C19299B-5711-4EE8-974C-B84FB63519B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
   <si>
     <t>Taak verdeling</t>
   </si>
@@ -256,6 +265,9 @@
   </si>
   <si>
     <t>ImplementatieBestuurderManager</t>
+  </si>
+  <si>
+    <t>ImplementatieTankkaartRepo</t>
   </si>
 </sst>
 </file>
@@ -410,18 +422,6 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +497,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,681 +980,688 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1"/>
-    <col min="7" max="7" width="42.88671875" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="11" width="8.6640625" customWidth="1"/>
+    <col min="1" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="62.5546875" customWidth="1"/>
-    <col min="14" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="62.5703125" customWidth="1"/>
+    <col min="14" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="3" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="6" t="s">
+      <c r="M3" s="31"/>
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="2" t="s">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="29">
         <v>44476</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10" t="s">
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="15" t="s">
+      <c r="H6" s="29"/>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
-      <c r="F7" s="9" t="s">
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="28"/>
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="16" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="9" t="s">
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="9" t="s">
+      <c r="H8" s="29"/>
+      <c r="I8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="9" t="s">
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="2" t="s">
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="29">
         <v>44483</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10" t="s">
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10" t="s">
+      <c r="H11" s="29"/>
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="9" t="s">
+      <c r="H12" s="29"/>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="9" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="2" t="s">
+      <c r="H14" s="29"/>
+      <c r="I14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="10" t="s">
+      <c r="H15" s="29"/>
+      <c r="I15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="29">
         <v>44490</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="2" t="s">
+      <c r="I16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="10" t="s">
+      <c r="H17" s="29"/>
+      <c r="I17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="2" t="s">
+      <c r="H18" s="29"/>
+      <c r="I18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10" t="s">
+      <c r="H19" s="29"/>
+      <c r="I19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="9" t="s">
+      <c r="H20" s="29"/>
+      <c r="I20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="2" t="s">
+      <c r="H21" s="29"/>
+      <c r="I21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="29">
         <v>44497</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="23" t="s">
+      <c r="I22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="9" t="s">
+      <c r="H23" s="29"/>
+      <c r="I23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10" t="s">
+      <c r="F24" s="28"/>
+      <c r="G24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="24" t="s">
+      <c r="H24" s="29"/>
+      <c r="I24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="23" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="25" t="s">
+      <c r="H25" s="29"/>
+      <c r="I25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="23" t="s">
+      <c r="F26" s="28"/>
+      <c r="G26" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="5:11" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="24" t="s">
+      <c r="H26" s="29"/>
+      <c r="I26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="5:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="23" t="s">
+      <c r="F27" s="28"/>
+      <c r="G27" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-    </row>
-    <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="25" t="s">
+      <c r="H27" s="29"/>
+      <c r="I27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="23" t="s">
+      <c r="F28" s="28"/>
+      <c r="G28" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-    </row>
-    <row r="29" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="25" t="s">
+      <c r="H28" s="29"/>
+      <c r="I28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="9" t="s">
+      <c r="H29" s="29"/>
+      <c r="I29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="25" t="s">
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="9" t="s">
+      <c r="H30" s="29"/>
+      <c r="I30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="25" t="s">
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="9" t="s">
+      <c r="H31" s="29"/>
+      <c r="I31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-    </row>
-    <row r="32" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="25" t="s">
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="29">
         <v>44473</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="25" t="s">
+      <c r="I32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-    </row>
-    <row r="34" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="26" t="s">
+      <c r="H33" s="29"/>
+      <c r="I33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="9" t="s">
+      <c r="H34" s="29"/>
+      <c r="I34" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="2" t="s">
+    <row r="35" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="10" t="s">
+      <c r="H35" s="29"/>
+      <c r="I35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="5:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10" t="s">
+      <c r="H36" s="29"/>
+      <c r="I36" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="23" t="s">
+      <c r="H37" s="29"/>
+      <c r="I37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-    </row>
-    <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="9" t="s">
+      <c r="H38" s="29"/>
+      <c r="I38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+    </row>
+    <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="7">
         <v>44480</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="9" t="s">
+    <row r="40" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="7">
         <v>44480</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="10"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="10" t="s">
+    <row r="41" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="6"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="9" t="s">
+      <c r="H41" s="24"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="9" t="s">
+      <c r="H42" s="24"/>
+      <c r="I42" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="10"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="10" t="s">
+    <row r="43" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="29"/>
-      <c r="I44" s="30"/>
-    </row>
-    <row r="45" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="29"/>
+      <c r="H43" s="7">
+        <v>44480</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="25"/>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="H22:H31"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H9"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="H10:H15"/>
@@ -1653,11 +1672,12 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="H22:H31"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I31 I34:I44">
     <cfRule type="expression" dxfId="11" priority="2">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C19299B-5711-4EE8-974C-B84FB63519B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8572E3C-5EFE-4816-9D71-A76A4E23F509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -499,16 +499,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,19 +1002,19 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="31"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
@@ -1040,16 +1040,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="31">
         <v>44476</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1063,12 +1063,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1080,14 +1080,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="28"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="29"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1137,16 +1137,16 @@
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="30" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="31">
         <v>44483</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -1156,12 +1156,12 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="29"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1169,12 +1169,12 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="29"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1208,7 +1208,7 @@
       <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1216,27 +1216,27 @@
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="31">
         <v>44490</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -1244,53 +1244,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="30" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="29"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="29"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="30" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="29"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="29"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1307,7 +1307,7 @@
       <c r="G21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="29"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1315,16 +1315,16 @@
       <c r="K21" s="18"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="31">
         <v>44497</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -1334,12 +1334,12 @@
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="29"/>
+      <c r="H23" s="31"/>
       <c r="I23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1350,11 +1350,11 @@
       <c r="E24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="29"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1365,11 +1365,11 @@
       <c r="E25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="29"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="5" t="s">
         <v>12</v>
       </c>
@@ -1380,11 +1380,11 @@
       <c r="E26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="29"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1395,11 +1395,11 @@
       <c r="E27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="29"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1410,11 +1410,11 @@
       <c r="E28" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="29"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="G29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="29"/>
+      <c r="H29" s="31"/>
       <c r="I29" s="5" t="s">
         <v>24</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="G30" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="29"/>
+      <c r="H30" s="31"/>
       <c r="I30" s="5" t="s">
         <v>24</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="G31" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="29"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="5" t="s">
         <v>24</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="G32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="31">
         <v>44473</v>
       </c>
       <c r="I32" s="5" t="s">
@@ -1501,7 +1501,7 @@
       <c r="G33" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="29"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="5" t="s">
         <v>12</v>
       </c>
@@ -1518,55 +1518,55 @@
       <c r="G34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="29"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="29"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="29"/>
+      <c r="H36" s="31"/>
       <c r="I36" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="29"/>
+      <c r="H37" s="31"/>
       <c r="I37" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
       <c r="G38" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="29"/>
+      <c r="H38" s="31"/>
       <c r="I38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>44480</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1657,11 +1657,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="H22:H31"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="H10:H15"/>
@@ -1672,12 +1673,11 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="H22:H31"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I31 I34:I44">
     <cfRule type="expression" dxfId="11" priority="2">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
   <si>
     <t xml:space="preserve">Taak verdeling</t>
   </si>
@@ -682,16 +682,16 @@
   </sheetPr>
   <dimension ref="B3:M45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B28" colorId="64" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="62.57"/>
@@ -1286,7 +1286,7 @@
         <v>44511</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1313,7 +1313,9 @@
         <v>66</v>
       </c>
       <c r="H41" s="26"/>
-      <c r="I41" s="7"/>
+      <c r="I41" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E42" s="7" t="s">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752CA86F-FB2D-4193-B312-41AD0E38ECB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99B7BE2-DCC0-4CA1-A86C-3BABAD88DD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
   <si>
     <t>Taak verdeling</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>Implementeren van VoertuigRepo</t>
-  </si>
-  <si>
-    <t>Implementeren van TankkaartManager</t>
   </si>
   <si>
     <t xml:space="preserve">Luca </t>
@@ -340,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -389,24 +386,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -423,9 +419,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,17 +462,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -949,701 +980,790 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:M45"/>
+  <dimension ref="B3:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1"/>
-    <col min="7" max="7" width="42.88671875" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="62.5546875" customWidth="1"/>
+    <col min="13" max="13" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="3" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="6" t="s">
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="2" t="s">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="26">
         <v>44476</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10" t="s">
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="15" t="s">
+      <c r="H6" s="26"/>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
-      <c r="F7" s="9" t="s">
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="25"/>
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="16" t="s">
+      <c r="H7" s="26"/>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="9" t="s">
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="9" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="9" t="s">
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="2" t="s">
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="26">
         <v>44483</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10" t="s">
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10" t="s">
+      <c r="H11" s="26"/>
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="9" t="s">
+      <c r="H12" s="26"/>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="9" t="s">
+      <c r="H13" s="26"/>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="2" t="s">
+      <c r="H14" s="26"/>
+      <c r="I14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="10" t="s">
+      <c r="H15" s="26"/>
+      <c r="I15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="26">
         <v>44490</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="2" t="s">
+      <c r="I16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="10" t="s">
+      <c r="H17" s="26"/>
+      <c r="I17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="2" t="s">
+      <c r="H18" s="26"/>
+      <c r="I18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10" t="s">
+      <c r="H19" s="26"/>
+      <c r="I19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="9" t="s">
+      <c r="H20" s="26"/>
+      <c r="I20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="2" t="s">
+      <c r="H21" s="26"/>
+      <c r="I21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="26">
         <v>44497</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="23" t="s">
+      <c r="I22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="9" t="s">
+      <c r="H23" s="26"/>
+      <c r="I23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="24" t="s">
+      <c r="H24" s="26"/>
+      <c r="I24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="23" t="s">
+      <c r="F25" s="25"/>
+      <c r="G25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="25" t="s">
+      <c r="H25" s="26"/>
+      <c r="I25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="23" t="s">
+      <c r="F26" s="25"/>
+      <c r="G26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="5:11" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="24" t="s">
+      <c r="H26" s="26"/>
+      <c r="I26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="5:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="23" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-    </row>
-    <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="25" t="s">
+      <c r="H27" s="26"/>
+      <c r="I27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="23" t="s">
+      <c r="F28" s="25"/>
+      <c r="G28" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-    </row>
-    <row r="29" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="25" t="s">
+      <c r="H28" s="26"/>
+      <c r="I28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="9" t="s">
+      <c r="H29" s="26"/>
+      <c r="I29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="25" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="9" t="s">
+      <c r="H30" s="26"/>
+      <c r="I30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="25" t="s">
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+    </row>
+    <row r="31" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="9" t="s">
+      <c r="H31" s="26"/>
+      <c r="I31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-    </row>
-    <row r="32" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="25" t="s">
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+    </row>
+    <row r="32" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="26">
         <v>44504</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="25" t="s">
+      <c r="I32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-    </row>
-    <row r="34" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="26" t="s">
+      <c r="H33" s="26"/>
+      <c r="I33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="9" t="s">
+      <c r="H34" s="26"/>
+      <c r="I34" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="2" t="s">
+    <row r="35" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="10" t="s">
+      <c r="H35" s="26"/>
+      <c r="I35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10" t="s">
+      <c r="H36" s="26"/>
+      <c r="I36" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="23" t="s">
+      <c r="H37" s="26"/>
+      <c r="I37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-    </row>
-    <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="9" t="s">
+      <c r="H38" s="26"/>
+      <c r="I38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="38">
         <v>44511</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="9" t="s">
+      <c r="I39" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="11">
-        <v>44511</v>
-      </c>
-      <c r="I40" s="9" t="s">
+      <c r="H40" s="39"/>
+      <c r="I40" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="10"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="10" t="s">
+    <row r="41" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="9" t="s">
+      <c r="F41" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="G41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="H41" s="39"/>
+      <c r="I41" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="9" t="s">
+      <c r="G42" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="40"/>
+      <c r="I42" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="35">
+        <v>44532</v>
+      </c>
+      <c r="I43" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="9" t="s">
+    <row r="44" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F44" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="36"/>
+      <c r="I44" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="11">
-        <v>44511</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="31" t="s">
+      <c r="H45" s="36"/>
+      <c r="I45" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="29"/>
+    <row r="46" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="37"/>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="H22:H31"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
+  <mergeCells count="25">
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H9"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="H10:H15"/>
@@ -1654,13 +1774,14 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="H22:H31"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I31 I34:I44">
+  <conditionalFormatting sqref="I5:I31 I34:I52">
     <cfRule type="expression" dxfId="11" priority="2">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99B7BE2-DCC0-4CA1-A86C-3BABAD88DD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB9CD01-F30A-4CE0-92C4-8E97313F038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26985" yWindow="1815" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
   <si>
     <t>Taak verdeling</t>
   </si>
@@ -469,18 +469,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,10 +479,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,13 +501,16 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,19 +1001,19 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="28"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
@@ -1039,16 +1039,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="39" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="40">
         <v>44476</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1062,12 +1062,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1079,14 +1079,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="25"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1136,16 +1136,16 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="40">
         <v>44483</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -1155,12 +1155,12 @@
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1168,12 +1168,12 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="26"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1215,27 +1215,27 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="39" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="40">
         <v>44490</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -1243,53 +1243,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="39" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="39" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="26"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="26"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="G21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="26"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1314,16 +1314,16 @@
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="39" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="40">
         <v>44497</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -1333,12 +1333,12 @@
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
       <c r="G23" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="26"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1349,11 +1349,11 @@
       <c r="E24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="26"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1364,11 +1364,11 @@
       <c r="E25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="26"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="5" t="s">
         <v>12</v>
       </c>
@@ -1379,11 +1379,11 @@
       <c r="E26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="39"/>
       <c r="G26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="26"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1394,11 +1394,11 @@
       <c r="E27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="26"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1409,11 +1409,11 @@
       <c r="E28" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="26"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="G29" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="26"/>
+      <c r="H29" s="40"/>
       <c r="I29" s="5" t="s">
         <v>24</v>
       </c>
@@ -1447,7 +1447,7 @@
       <c r="G30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="26"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="5" t="s">
         <v>24</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="G31" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="26"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="5" t="s">
         <v>24</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="G32" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="40">
         <v>44504</v>
       </c>
       <c r="I32" s="5" t="s">
@@ -1500,7 +1500,7 @@
       <c r="G33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="26"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="5" t="s">
         <v>12</v>
       </c>
@@ -1517,55 +1517,55 @@
       <c r="G34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="26"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="39" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="26"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="26"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="26"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
       <c r="G38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="26"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="G39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="30">
         <v>44511</v>
       </c>
       <c r="I39" s="5" t="s">
@@ -1599,7 +1599,7 @@
       <c r="G40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="39"/>
+      <c r="H40" s="31"/>
       <c r="I40" s="5" t="s">
         <v>7</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="G41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="39"/>
+      <c r="H41" s="31"/>
       <c r="I41" s="5" t="s">
         <v>24</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="G42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="40"/>
+      <c r="H42" s="32"/>
       <c r="I42" s="5" t="s">
         <v>24</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="G43" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H43" s="35">
+      <c r="H43" s="34">
         <v>44532</v>
       </c>
       <c r="I43" s="24" t="s">
@@ -1658,10 +1658,10 @@
       <c r="F44" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H44" s="36"/>
+      <c r="H44" s="35"/>
       <c r="I44" s="24" t="s">
         <v>12</v>
       </c>
@@ -1669,97 +1669,94 @@
     <row r="45" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
-      <c r="G45" s="32" t="s">
+      <c r="G45" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="36"/>
+      <c r="H45" s="35"/>
       <c r="I45" s="24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
-      <c r="G46" s="32" t="s">
+      <c r="G46" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="H46" s="37"/>
-      <c r="I46" s="24"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="14"/>
     </row>
     <row r="48" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="14"/>
     </row>
     <row r="49" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="14"/>
     </row>
     <row r="50" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="14"/>
     </row>
     <row r="51" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="14"/>
     </row>
     <row r="52" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="14"/>
     </row>
     <row r="53" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="E3:I3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F6"/>
@@ -1774,6 +1771,11 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="E3:I3"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F28"/>
     <mergeCell ref="H22:H31"/>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB9CD01-F30A-4CE0-92C4-8E97313F038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286F168-4CD1-4F38-B120-C7580934F127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26985" yWindow="1815" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
   <si>
     <t>Taak verdeling</t>
   </si>
@@ -240,10 +240,16 @@
     <t>Implementeren van TankkaartRepo</t>
   </si>
   <si>
-    <t>UIVoertuigToevoegen</t>
-  </si>
-  <si>
     <t>Design ToevoegenVoertuig</t>
+  </si>
+  <si>
+    <t>Code Behind MainWindow</t>
+  </si>
+  <si>
+    <t>Design MainWindow</t>
+  </si>
+  <si>
+    <t>Code Behind ToevoegenVoertuig</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -453,22 +459,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,6 +477,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,25 +501,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:M56"/>
+  <dimension ref="B3:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,19 +1013,19 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="38"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
@@ -1039,16 +1051,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="30">
         <v>44476</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1062,12 +1074,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1079,14 +1091,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="39"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1119,7 @@
       <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="40"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1128,7 +1140,7 @@
       <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="40"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1136,16 +1148,16 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="29" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="30">
         <v>44483</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -1155,12 +1167,12 @@
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1168,12 +1180,12 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="40"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1190,7 +1202,7 @@
       <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1207,7 +1219,7 @@
       <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="40"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1215,27 +1227,27 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="40"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="30">
         <v>44490</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -1243,53 +1255,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="29" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="40"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="40"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="29" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="40"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="40"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1306,7 +1318,7 @@
       <c r="G21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="40"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1314,16 +1326,16 @@
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="30">
         <v>44497</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -1333,12 +1345,12 @@
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="40"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1346,14 +1358,14 @@
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="39"/>
+      <c r="F24" s="29"/>
       <c r="G24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="40"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1361,14 +1373,12 @@
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="39"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="40"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="5" t="s">
         <v>12</v>
       </c>
@@ -1376,14 +1386,14 @@
       <c r="K25" s="17"/>
     </row>
     <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="39"/>
+      <c r="F26" s="29"/>
       <c r="G26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="40"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1391,14 +1401,14 @@
       <c r="K26" s="17"/>
     </row>
     <row r="27" spans="5:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="29"/>
       <c r="G27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="40"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1406,14 +1416,12 @@
       <c r="K27" s="17"/>
     </row>
     <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="39"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="40"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1421,16 +1429,16 @@
       <c r="K28" s="17"/>
     </row>
     <row r="29" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="40"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="5" t="s">
         <v>24</v>
       </c>
@@ -1438,16 +1446,16 @@
       <c r="K29" s="17"/>
     </row>
     <row r="30" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="19" t="s">
         <v>53</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="40"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="5" t="s">
         <v>24</v>
       </c>
@@ -1455,16 +1463,16 @@
       <c r="K30" s="17"/>
     </row>
     <row r="31" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="40"/>
+      <c r="H31" s="30"/>
       <c r="I31" s="5" t="s">
         <v>24</v>
       </c>
@@ -1472,16 +1480,16 @@
       <c r="K31" s="17"/>
     </row>
     <row r="32" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="30">
         <v>44504</v>
       </c>
       <c r="I32" s="5" t="s">
@@ -1491,16 +1499,16 @@
       <c r="K32" s="17"/>
     </row>
     <row r="33" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="19" t="s">
         <v>57</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="40"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="5" t="s">
         <v>12</v>
       </c>
@@ -1508,64 +1516,62 @@
       <c r="K33" s="17"/>
     </row>
     <row r="34" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="21" t="s">
-        <v>21</v>
-      </c>
+      <c r="E34" s="41"/>
       <c r="F34" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="40"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="40"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
       <c r="G36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="40"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
       <c r="G37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="40"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
       <c r="G38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="40"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1573,7 +1579,7 @@
       <c r="K38" s="17"/>
     </row>
     <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="40" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -1582,7 +1588,7 @@
       <c r="G39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="31">
         <v>44511</v>
       </c>
       <c r="I39" s="5" t="s">
@@ -1590,16 +1596,14 @@
       </c>
     </row>
     <row r="40" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="E40" s="41"/>
       <c r="F40" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="31"/>
+      <c r="H40" s="32"/>
       <c r="I40" s="5" t="s">
         <v>7</v>
       </c>
@@ -1614,7 +1618,7 @@
       <c r="G41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="31"/>
+      <c r="H41" s="32"/>
       <c r="I41" s="5" t="s">
         <v>24</v>
       </c>
@@ -1629,134 +1633,181 @@
       <c r="G42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="32"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="H43" s="36">
+        <v>44532</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="36"/>
+      <c r="I44" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="36"/>
+      <c r="I45" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="36"/>
+      <c r="I46" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="34"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="36"/>
+      <c r="I47" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="34"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="36"/>
+      <c r="I48" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="34"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H43" s="34">
-        <v>44532</v>
-      </c>
-      <c r="I43" s="24" t="s">
+      <c r="H49" s="36"/>
+      <c r="I49" s="27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H44" s="35"/>
-      <c r="I44" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H45" s="35"/>
-      <c r="I45" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="14"/>
     </row>
     <row r="50" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="22"/>
       <c r="I50" s="14"/>
     </row>
     <row r="51" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="25"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="22"/>
       <c r="I51" s="14"/>
     </row>
     <row r="52" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="25"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="22"/>
       <c r="I52" s="14"/>
     </row>
     <row r="53" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="22"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="26"/>
       <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="22"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="26"/>
       <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-    </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="22"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="26"/>
       <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-    </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="30">
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="H22:H31"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="H43:H49"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F6"/>
@@ -1771,19 +1822,8 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="H22:H31"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I31 I34:I52">
+  <conditionalFormatting sqref="I5:I31 I34:I55">
     <cfRule type="expression" dxfId="11" priority="2">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\source\repos\Oli4dn\FleetMangementApp\Documentatie\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5376D372-AEF8-4603-9A6B-12D9B2467475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684FFCAF-9D48-4286-B20C-26C0136169BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
   <si>
     <t>Taak verdeling</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Bug fixing Repos</t>
+  </si>
+  <si>
+    <t>Voertuigen Toevoegen</t>
   </si>
 </sst>
 </file>
@@ -438,26 +441,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -512,13 +497,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,6 +512,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,7 +537,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1022,875 +1018,872 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="62.5703125" customWidth="1"/>
+    <col min="13" max="13" width="62.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
+    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="5" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="8" t="s">
+      <c r="M3" s="38"/>
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="4" t="s">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="35">
         <v>44476</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="13" t="s">
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="12" t="s">
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="16" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="4"/>
-      <c r="F7" s="11" t="s">
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="27"/>
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="17" t="s">
+      <c r="H7" s="35"/>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="11" t="s">
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="11" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="11" t="s">
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="35"/>
+      <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="4" t="s">
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="35">
         <v>44483</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12" t="s">
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12" t="s">
+      <c r="H11" s="35"/>
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="11" t="s">
+      <c r="H12" s="35"/>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+      <c r="H13" s="35"/>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="4" t="s">
+      <c r="H14" s="35"/>
+      <c r="I14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="12" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="35">
         <v>44490</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="4" t="s">
+      <c r="I16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="12" t="s">
+      <c r="H17" s="35"/>
+      <c r="I17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="4" t="s">
+      <c r="H18" s="35"/>
+      <c r="I18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="12" t="s">
+      <c r="H19" s="35"/>
+      <c r="I19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-    </row>
-    <row r="21" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="11" t="s">
+      <c r="H20" s="35"/>
+      <c r="I20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-    </row>
-    <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="4" t="s">
+      <c r="H21" s="35"/>
+      <c r="I21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="35">
         <v>44497</v>
       </c>
-      <c r="I22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-    </row>
-    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="24" t="s">
+      <c r="I22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-    </row>
-    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="2" t="s">
+      <c r="H23" s="35"/>
+      <c r="I23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="12" t="s">
+      <c r="F24" s="27"/>
+      <c r="G24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-    </row>
-    <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="24" t="s">
+      <c r="H24" s="35"/>
+      <c r="I24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="36"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-    </row>
-    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="25" t="s">
+      <c r="H25" s="35"/>
+      <c r="I25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="24" t="s">
+      <c r="F26" s="27"/>
+      <c r="G26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-    </row>
-    <row r="27" spans="5:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="4" t="s">
+      <c r="H26" s="35"/>
+      <c r="I26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="5:11" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="24" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-    </row>
-    <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="24" t="s">
+      <c r="H27" s="35"/>
+      <c r="I27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-    </row>
-    <row r="29" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="25" t="s">
+      <c r="H28" s="35"/>
+      <c r="I28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="11" t="s">
+      <c r="H29" s="35"/>
+      <c r="I29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-    </row>
-    <row r="30" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="25" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="11" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-    </row>
-    <row r="31" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="25" t="s">
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+    </row>
+    <row r="31" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="11" t="s">
+      <c r="H31" s="35"/>
+      <c r="I31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-    </row>
-    <row r="32" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="25" t="s">
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+    </row>
+    <row r="32" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="35">
         <v>44504</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-    </row>
-    <row r="33" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="4" t="s">
+      <c r="I32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-    </row>
-    <row r="34" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="4"/>
-      <c r="F34" s="11" t="s">
+      <c r="H33" s="35"/>
+      <c r="I33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="27"/>
+      <c r="F34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="11" t="s">
+      <c r="H34" s="35"/>
+      <c r="I34" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="4" t="s">
+    <row r="35" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="12" t="s">
+      <c r="H35" s="35"/>
+      <c r="I35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="12" t="s">
+      <c r="H36" s="35"/>
+      <c r="I36" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="5:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="24" t="s">
+      <c r="H37" s="35"/>
+      <c r="I37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-    </row>
-    <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="4" t="s">
+      <c r="H38" s="35"/>
+      <c r="I38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="35">
         <v>44511</v>
       </c>
-      <c r="I39" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="4"/>
-      <c r="F40" s="11" t="s">
+      <c r="I39" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="27"/>
+      <c r="F40" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="11" t="s">
+      <c r="H40" s="35"/>
+      <c r="I40" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="11" t="s">
+    <row r="41" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="11" t="s">
+      <c r="H41" s="35"/>
+      <c r="I41" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="11" t="s">
+    <row r="42" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="11" t="s">
+      <c r="H42" s="35"/>
+      <c r="I42" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="4" t="s">
+    <row r="43" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="28">
         <v>44532</v>
       </c>
-      <c r="I43" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="12" t="s">
+      <c r="I43" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="12" t="s">
+      <c r="H44" s="28"/>
+      <c r="I44" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="11" t="s">
+      <c r="H45" s="28"/>
+      <c r="I45" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="4" t="s">
+    <row r="46" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="26" t="s">
+      <c r="F46" s="27"/>
+      <c r="G46" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="26" t="s">
+      <c r="H46" s="28"/>
+      <c r="I46" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="26" t="s">
+      <c r="H47" s="28"/>
+      <c r="I47" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="26" t="s">
+      <c r="H48" s="28"/>
+      <c r="I48" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="11" t="s">
+      <c r="H49" s="28"/>
+      <c r="I49" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="38" t="s">
+    <row r="50" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G50" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H50" s="35" t="s">
+      <c r="H50" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="I50" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="39"/>
-      <c r="F51" s="33" t="s">
+      <c r="I50" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="33"/>
+      <c r="F51" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="37"/>
-      <c r="I51" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="39"/>
-      <c r="F52" s="33" t="s">
+      <c r="H51" s="31"/>
+      <c r="I51" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="33"/>
+      <c r="F52" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H52" s="35" t="s">
+      <c r="H52" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I52" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="39"/>
-      <c r="F53" s="33" t="s">
+      <c r="I52" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="33"/>
+      <c r="F53" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G53" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="36"/>
-      <c r="I53" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="40"/>
-      <c r="F54" s="33" t="s">
+      <c r="H53" s="30"/>
+      <c r="I53" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="34"/>
+      <c r="F54" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H54" s="37"/>
-      <c r="I54" s="11" t="s">
+      <c r="H54" s="31"/>
+      <c r="I54" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="33" t="s">
+    <row r="55" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="41" t="s">
+      <c r="G55" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="H55" s="34">
+      <c r="H55" s="25">
         <v>44546</v>
       </c>
-      <c r="I55" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="29"/>
-    </row>
-    <row r="57" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-    </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-    </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-    </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
+      <c r="I55" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="25">
+        <v>44546</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="H22:H31"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H9"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="H10:H15"/>
@@ -1901,11 +1894,24 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="H22:H31"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="E50:E54"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I31 I34:I56">
     <cfRule type="expression" dxfId="11" priority="2">

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684FFCAF-9D48-4286-B20C-26C0136169BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F72DC11-6793-4B0D-A796-D8AA6765BBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
   <si>
     <t>Taak verdeling</t>
   </si>
@@ -282,7 +282,10 @@
     <t>Bug fixing Repos</t>
   </si>
   <si>
-    <t>Voertuigen Toevoegen</t>
+    <t>Tankkaart Selecterern + Tankkaart Mainwindow</t>
+  </si>
+  <si>
+    <t>Voertuigen Zoeken</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -516,6 +519,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,16 +555,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,7 +1031,7 @@
   <dimension ref="B3:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,19 +1049,19 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="38"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
@@ -1075,16 +1087,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="31">
         <v>44476</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1098,12 +1110,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="35"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1115,14 +1127,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="27"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="35"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1143,7 +1155,7 @@
       <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="35"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1164,7 +1176,7 @@
       <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="35"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1172,16 +1184,16 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="30" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="31">
         <v>44483</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -1191,12 +1203,12 @@
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="35"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1204,12 +1216,12 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="35"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1226,7 +1238,7 @@
       <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1243,7 +1255,7 @@
       <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="35"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1251,27 +1263,27 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="31">
         <v>44490</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -1279,53 +1291,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="30" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="35"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="35"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="30" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="35"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="35"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1342,7 +1354,7 @@
       <c r="G21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="35"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1350,16 +1362,16 @@
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="31">
         <v>44497</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -1369,12 +1381,12 @@
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="35"/>
+      <c r="H23" s="31"/>
       <c r="I23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1382,14 +1394,14 @@
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="27"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="35"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1397,12 +1409,12 @@
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="36"/>
-      <c r="F25" s="27"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="35"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="5" t="s">
         <v>12</v>
       </c>
@@ -1413,11 +1425,11 @@
       <c r="E26" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="27"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="35"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1425,14 +1437,14 @@
       <c r="K26" s="17"/>
     </row>
     <row r="27" spans="5:11" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="27"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="35"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1440,12 +1452,12 @@
       <c r="K27" s="17"/>
     </row>
     <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="35"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1462,7 +1474,7 @@
       <c r="G29" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="35"/>
+      <c r="H29" s="31"/>
       <c r="I29" s="5" t="s">
         <v>24</v>
       </c>
@@ -1479,7 +1491,7 @@
       <c r="G30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="35"/>
+      <c r="H30" s="31"/>
       <c r="I30" s="5" t="s">
         <v>24</v>
       </c>
@@ -1496,7 +1508,7 @@
       <c r="G31" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="35"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="5" t="s">
         <v>24</v>
       </c>
@@ -1513,7 +1525,7 @@
       <c r="G32" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="31">
         <v>44504</v>
       </c>
       <c r="I32" s="5" t="s">
@@ -1523,7 +1535,7 @@
       <c r="K32" s="17"/>
     </row>
     <row r="33" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="30" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="19" t="s">
@@ -1532,7 +1544,7 @@
       <c r="G33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="35"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="5" t="s">
         <v>12</v>
       </c>
@@ -1540,62 +1552,62 @@
       <c r="K33" s="17"/>
     </row>
     <row r="34" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="27"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="35"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="35"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="35"/>
+      <c r="H36" s="31"/>
       <c r="I36" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="35"/>
+      <c r="H37" s="31"/>
       <c r="I37" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
       <c r="G38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="35"/>
+      <c r="H38" s="31"/>
       <c r="I38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1603,7 +1615,7 @@
       <c r="K38" s="17"/>
     </row>
     <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="30" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -1612,7 +1624,7 @@
       <c r="G39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="35">
+      <c r="H39" s="31">
         <v>44511</v>
       </c>
       <c r="I39" s="5" t="s">
@@ -1620,14 +1632,14 @@
       </c>
     </row>
     <row r="40" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="27"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="35"/>
+      <c r="H40" s="31"/>
       <c r="I40" s="5" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1654,7 @@
       <c r="G41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="35"/>
+      <c r="H41" s="31"/>
       <c r="I41" s="5" t="s">
         <v>24</v>
       </c>
@@ -1657,22 +1669,22 @@
       <c r="G42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="35"/>
+      <c r="H42" s="31"/>
       <c r="I42" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H43" s="33">
         <v>44532</v>
       </c>
       <c r="I43" s="5" t="s">
@@ -1680,75 +1692,75 @@
       </c>
     </row>
     <row r="44" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
       <c r="G44" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H44" s="28"/>
+      <c r="H44" s="33"/>
       <c r="I44" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="28"/>
+      <c r="H45" s="33"/>
       <c r="I45" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="27"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="28"/>
+      <c r="H46" s="33"/>
       <c r="I46" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
       <c r="G47" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H47" s="28"/>
+      <c r="H47" s="33"/>
       <c r="I47" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
       <c r="G48" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H48" s="28"/>
+      <c r="H48" s="33"/>
       <c r="I48" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
       <c r="G49" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H49" s="28"/>
+      <c r="H49" s="33"/>
       <c r="I49" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="37" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="24" t="s">
@@ -1757,7 +1769,7 @@
       <c r="G50" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="34" t="s">
         <v>77</v>
       </c>
       <c r="I50" s="5" t="s">
@@ -1765,27 +1777,27 @@
       </c>
     </row>
     <row r="51" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="33"/>
+      <c r="E51" s="38"/>
       <c r="F51" s="24" t="s">
         <v>75</v>
       </c>
       <c r="G51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="31"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="33"/>
+      <c r="E52" s="38"/>
       <c r="F52" s="24" t="s">
         <v>79</v>
       </c>
       <c r="G52" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H52" s="34" t="s">
         <v>81</v>
       </c>
       <c r="I52" s="5" t="s">
@@ -1793,27 +1805,27 @@
       </c>
     </row>
     <row r="53" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="33"/>
+      <c r="E53" s="38"/>
       <c r="F53" s="24" t="s">
         <v>79</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="30"/>
+      <c r="H53" s="35"/>
       <c r="I53" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="34"/>
+      <c r="E54" s="39"/>
       <c r="F54" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H54" s="31"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="5" t="s">
         <v>7</v>
       </c>
@@ -1843,7 +1855,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H56" s="25">
         <v>44546</v>
@@ -1853,11 +1865,21 @@
       </c>
     </row>
     <row r="57" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
+      <c r="E57" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="41">
+        <v>44553</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E58" s="21"/>
@@ -1879,11 +1901,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="H22:H31"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E27:E28"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="H10:H15"/>
@@ -1894,26 +1929,13 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="H22:H31"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H9"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I31 I34:I56">
+  <conditionalFormatting sqref="I5:I31 I34:I57">
     <cfRule type="expression" dxfId="11" priority="2">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F72DC11-6793-4B0D-A796-D8AA6765BBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F36A50A-0115-48C8-BC09-E3D3FCCC0AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="88">
   <si>
     <t>Taak verdeling</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>Voertuigen Zoeken</t>
+  </si>
+  <si>
+    <t>Handleiding</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -519,46 +522,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1031,7 +1037,7 @@
   <dimension ref="B3:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,19 +1055,19 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="29"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
@@ -1087,16 +1093,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="39">
         <v>44476</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1110,12 +1116,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1127,14 +1133,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="30"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1155,7 +1161,7 @@
       <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1176,7 +1182,7 @@
       <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1184,16 +1190,16 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="39">
         <v>44483</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -1203,12 +1209,12 @@
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1216,12 +1222,12 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="31"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1244,7 @@
       <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1255,7 +1261,7 @@
       <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1263,27 +1269,27 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="39">
         <v>44490</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -1291,53 +1297,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="31" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +1360,7 @@
       <c r="G21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1362,16 +1368,16 @@
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="39">
         <v>44497</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -1381,12 +1387,12 @@
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="31"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1394,14 +1400,14 @@
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="30"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1409,12 +1415,12 @@
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="32"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="31"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="5" t="s">
         <v>12</v>
       </c>
@@ -1425,11 +1431,11 @@
       <c r="E26" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="30"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="31"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1437,14 +1443,14 @@
       <c r="K26" s="17"/>
     </row>
     <row r="27" spans="5:11" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="30"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1452,12 +1458,12 @@
       <c r="K27" s="17"/>
     </row>
     <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="31"/>
+      <c r="H28" s="39"/>
       <c r="I28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1474,7 +1480,7 @@
       <c r="G29" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="31"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="5" t="s">
         <v>24</v>
       </c>
@@ -1491,7 +1497,7 @@
       <c r="G30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="31"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="5" t="s">
         <v>24</v>
       </c>
@@ -1508,7 +1514,7 @@
       <c r="G31" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="31"/>
+      <c r="H31" s="39"/>
       <c r="I31" s="5" t="s">
         <v>24</v>
       </c>
@@ -1525,7 +1531,7 @@
       <c r="G32" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="39">
         <v>44504</v>
       </c>
       <c r="I32" s="5" t="s">
@@ -1535,7 +1541,7 @@
       <c r="K32" s="17"/>
     </row>
     <row r="33" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="31" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="19" t="s">
@@ -1544,7 +1550,7 @@
       <c r="G33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="31"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="5" t="s">
         <v>12</v>
       </c>
@@ -1552,62 +1558,62 @@
       <c r="K33" s="17"/>
     </row>
     <row r="34" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="30"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="31"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="31"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="31"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="31"/>
+      <c r="H37" s="39"/>
       <c r="I37" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="31"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1615,7 +1621,7 @@
       <c r="K38" s="17"/>
     </row>
     <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -1624,7 +1630,7 @@
       <c r="G39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="39">
         <v>44511</v>
       </c>
       <c r="I39" s="5" t="s">
@@ -1632,14 +1638,14 @@
       </c>
     </row>
     <row r="40" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="30"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="31"/>
+      <c r="H40" s="39"/>
       <c r="I40" s="5" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +1660,7 @@
       <c r="G41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="31"/>
+      <c r="H41" s="39"/>
       <c r="I41" s="5" t="s">
         <v>24</v>
       </c>
@@ -1669,22 +1675,22 @@
       <c r="G42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="31"/>
+      <c r="H42" s="39"/>
       <c r="I42" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="33">
+      <c r="H43" s="32">
         <v>44532</v>
       </c>
       <c r="I43" s="5" t="s">
@@ -1692,75 +1698,75 @@
       </c>
     </row>
     <row r="44" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
       <c r="G44" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H44" s="33"/>
+      <c r="H44" s="32"/>
       <c r="I44" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="33"/>
+      <c r="H45" s="32"/>
       <c r="I45" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="30"/>
+      <c r="F46" s="31"/>
       <c r="G46" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="33"/>
+      <c r="H46" s="32"/>
       <c r="I46" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H47" s="33"/>
+      <c r="H47" s="32"/>
       <c r="I47" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H48" s="33"/>
+      <c r="H48" s="32"/>
       <c r="I48" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
       <c r="G49" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H49" s="33"/>
+      <c r="H49" s="32"/>
       <c r="I49" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="24" t="s">
@@ -1769,7 +1775,7 @@
       <c r="G50" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H50" s="34" t="s">
+      <c r="H50" s="33" t="s">
         <v>77</v>
       </c>
       <c r="I50" s="5" t="s">
@@ -1777,27 +1783,27 @@
       </c>
     </row>
     <row r="51" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="38"/>
+      <c r="E51" s="37"/>
       <c r="F51" s="24" t="s">
         <v>75</v>
       </c>
       <c r="G51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="36"/>
+      <c r="H51" s="35"/>
       <c r="I51" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="38"/>
+      <c r="E52" s="37"/>
       <c r="F52" s="24" t="s">
         <v>79</v>
       </c>
       <c r="G52" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H52" s="34" t="s">
+      <c r="H52" s="33" t="s">
         <v>81</v>
       </c>
       <c r="I52" s="5" t="s">
@@ -1805,27 +1811,27 @@
       </c>
     </row>
     <row r="53" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="38"/>
+      <c r="E53" s="37"/>
       <c r="F53" s="24" t="s">
         <v>79</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="35"/>
+      <c r="H53" s="34"/>
       <c r="I53" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="39"/>
+      <c r="E54" s="38"/>
       <c r="F54" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H54" s="36"/>
+      <c r="H54" s="35"/>
       <c r="I54" s="5" t="s">
         <v>7</v>
       </c>
@@ -1871,10 +1877,10 @@
       <c r="F57" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="41">
+      <c r="H57" s="30">
         <v>44553</v>
       </c>
       <c r="I57" s="27" t="s">
@@ -1882,11 +1888,19 @@
       </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
+      <c r="E58" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" s="29"/>
+      <c r="I58" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E59" s="21"/>
@@ -1901,24 +1915,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="H22:H31"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H9"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="H10:H15"/>
@@ -1929,13 +1930,26 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="H22:H31"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="E50:E54"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I31 I34:I57">
+  <conditionalFormatting sqref="I5:I31 I34:I58">
     <cfRule type="expression" dxfId="11" priority="2">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F36A50A-0115-48C8-BC09-E3D3FCCC0AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFAE2DF-E767-4E07-A55D-0D74D414DC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="90">
   <si>
     <t>Taak verdeling</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>Handleiding</t>
+  </si>
+  <si>
+    <t>Tankkaart Aanpassen / Toevoegen Code Behind</t>
+  </si>
+  <si>
+    <t>Voertuig Aanpassen / Toevoegen Design Code B</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -503,15 +509,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,9 +528,21 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,16 +564,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,7 +1044,7 @@
   <dimension ref="B3:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,19 +1062,19 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="42"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
@@ -1093,16 +1100,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="31">
         <v>44476</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1116,12 +1123,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1133,14 +1140,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="31"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="39"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1161,7 +1168,7 @@
       <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="39"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1182,7 +1189,7 @@
       <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="39"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1190,16 +1197,16 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="30" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="31">
         <v>44483</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -1209,12 +1216,12 @@
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="39"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1222,12 +1229,12 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1251,7 @@
       <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="39"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1261,7 +1268,7 @@
       <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="39"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1269,27 +1276,27 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="39"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="31">
         <v>44490</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -1297,53 +1304,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="30" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="30" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="39"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1367,7 @@
       <c r="G21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1368,16 +1375,16 @@
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="31">
         <v>44497</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -1387,12 +1394,12 @@
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="31"/>
       <c r="I23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1400,14 +1407,14 @@
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1415,12 +1422,12 @@
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="40"/>
-      <c r="F25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="5" t="s">
         <v>12</v>
       </c>
@@ -1431,11 +1438,11 @@
       <c r="E26" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="31"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="39"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1443,14 +1450,14 @@
       <c r="K26" s="17"/>
     </row>
     <row r="27" spans="5:11" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1458,12 +1465,12 @@
       <c r="K27" s="17"/>
     </row>
     <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1480,7 +1487,7 @@
       <c r="G29" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="31"/>
       <c r="I29" s="5" t="s">
         <v>24</v>
       </c>
@@ -1497,7 +1504,7 @@
       <c r="G30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="31"/>
       <c r="I30" s="5" t="s">
         <v>24</v>
       </c>
@@ -1514,7 +1521,7 @@
       <c r="G31" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="5" t="s">
         <v>24</v>
       </c>
@@ -1531,7 +1538,7 @@
       <c r="G32" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="31">
         <v>44504</v>
       </c>
       <c r="I32" s="5" t="s">
@@ -1541,7 +1548,7 @@
       <c r="K32" s="17"/>
     </row>
     <row r="33" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="30" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="19" t="s">
@@ -1550,7 +1557,7 @@
       <c r="G33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="5" t="s">
         <v>12</v>
       </c>
@@ -1558,62 +1565,62 @@
       <c r="K33" s="17"/>
     </row>
     <row r="34" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="31"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="39"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="39"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="31"/>
       <c r="I36" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="39"/>
+      <c r="H37" s="31"/>
       <c r="I37" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
       <c r="G38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="31"/>
       <c r="I38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1621,7 +1628,7 @@
       <c r="K38" s="17"/>
     </row>
     <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="30" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -1630,7 +1637,7 @@
       <c r="G39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="39">
+      <c r="H39" s="31">
         <v>44511</v>
       </c>
       <c r="I39" s="5" t="s">
@@ -1638,14 +1645,14 @@
       </c>
     </row>
     <row r="40" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="31"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="39"/>
+      <c r="H40" s="31"/>
       <c r="I40" s="5" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1667,7 @@
       <c r="G41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="39"/>
+      <c r="H41" s="31"/>
       <c r="I41" s="5" t="s">
         <v>24</v>
       </c>
@@ -1675,22 +1682,22 @@
       <c r="G42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="39"/>
+      <c r="H42" s="31"/>
       <c r="I42" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="31" t="s">
+      <c r="F43" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="33">
         <v>44532</v>
       </c>
       <c r="I43" s="5" t="s">
@@ -1698,84 +1705,84 @@
       </c>
     </row>
     <row r="44" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
       <c r="G44" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H44" s="32"/>
+      <c r="H44" s="33"/>
       <c r="I44" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="32"/>
+      <c r="H45" s="33"/>
       <c r="I45" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="31"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="32"/>
+      <c r="H46" s="33"/>
       <c r="I46" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
       <c r="G47" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H47" s="32"/>
+      <c r="H47" s="33"/>
       <c r="I47" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
       <c r="G48" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H48" s="32"/>
+      <c r="H48" s="33"/>
       <c r="I48" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
       <c r="G49" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H49" s="32"/>
+      <c r="H49" s="33"/>
       <c r="I49" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="21" t="s">
         <v>75</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H50" s="33" t="s">
+      <c r="H50" s="34" t="s">
         <v>77</v>
       </c>
       <c r="I50" s="5" t="s">
@@ -1783,27 +1790,27 @@
       </c>
     </row>
     <row r="51" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="37"/>
-      <c r="F51" s="24" t="s">
+      <c r="E51" s="38"/>
+      <c r="F51" s="21" t="s">
         <v>75</v>
       </c>
       <c r="G51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="35"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="37"/>
-      <c r="F52" s="24" t="s">
+      <c r="E52" s="38"/>
+      <c r="F52" s="21" t="s">
         <v>79</v>
       </c>
       <c r="G52" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H52" s="33" t="s">
+      <c r="H52" s="34" t="s">
         <v>81</v>
       </c>
       <c r="I52" s="5" t="s">
@@ -1811,42 +1818,42 @@
       </c>
     </row>
     <row r="53" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="37"/>
-      <c r="F53" s="24" t="s">
+      <c r="E53" s="38"/>
+      <c r="F53" s="21" t="s">
         <v>79</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="34"/>
+      <c r="H53" s="35"/>
       <c r="I53" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="38"/>
-      <c r="F54" s="24" t="s">
+      <c r="E54" s="39"/>
+      <c r="F54" s="21" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H54" s="35"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="G55" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H55" s="22">
         <v>44546</v>
       </c>
       <c r="I55" s="5" t="s">
@@ -1854,72 +1861,108 @@
       </c>
     </row>
     <row r="56" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G56" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H56" s="25">
+      <c r="H56" s="22">
         <v>44546</v>
       </c>
       <c r="I56" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="27">
+        <v>44553</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E58" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" s="26"/>
+      <c r="I58" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E57" s="24" t="s">
+    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E59" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F59" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" s="30">
-        <v>44553</v>
-      </c>
-      <c r="I57" s="27" t="s">
+      <c r="G59" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H59" s="27">
+        <v>44559</v>
+      </c>
+      <c r="I59" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E58" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58" s="24" t="s">
+    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E60" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="H58" s="29"/>
-      <c r="I58" s="28" t="s">
+      <c r="G60" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="H60" s="42">
+        <v>44559</v>
+      </c>
+      <c r="I60" s="43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-    </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="H22:H31"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E27:E28"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="H10:H15"/>
@@ -1930,26 +1973,13 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="H22:H31"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H9"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I31 I34:I58">
+  <conditionalFormatting sqref="I5:I31 I34:I58 I60">
     <cfRule type="expression" dxfId="11" priority="2">
       <formula>$I5="Stuck"</formula>
     </cfRule>

--- a/Documentatie/Logboeken/TaakVerdeling.xlsx
+++ b/Documentatie/Logboeken/TaakVerdeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFAE2DF-E767-4E07-A55D-0D74D414DC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618CCC0D-0480-4461-95D3-424AE060464A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaakVerdeling" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="91">
   <si>
     <t>Taak verdeling</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Voertuig Aanpassen / Toevoegen Design Code B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knop Tankaart Aanpassen </t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -528,42 +531,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -572,6 +539,51 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:M60"/>
+  <dimension ref="B3:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,19 +1074,19 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="29"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
@@ -1100,16 +1112,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="40">
         <v>44476</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1123,12 +1135,12 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1140,14 +1152,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="30"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1168,7 +1180,7 @@
       <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1189,7 +1201,7 @@
       <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1197,16 +1209,16 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="32" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="40">
         <v>44483</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -1216,12 +1228,12 @@
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1229,12 +1241,12 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="31"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1263,7 @@
       <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1268,7 +1280,7 @@
       <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1276,27 +1288,27 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="40">
         <v>44490</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -1304,53 +1316,53 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="32" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1367,7 +1379,7 @@
       <c r="G21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1375,16 +1387,16 @@
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="40">
         <v>44497</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -1394,12 +1406,12 @@
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="31"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1407,14 +1419,14 @@
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="30"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1422,12 +1434,12 @@
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="32"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="31"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="5" t="s">
         <v>12</v>
       </c>
@@ -1438,11 +1450,11 @@
       <c r="E26" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="30"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="31"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1450,14 +1462,14 @@
       <c r="K26" s="17"/>
     </row>
     <row r="27" spans="5:11" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="30"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1465,12 +1477,12 @@
       <c r="K27" s="17"/>
     </row>
     <row r="28" spans="5:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="31"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1487,7 +1499,7 @@
       <c r="G29" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="31"/>
+      <c r="H29" s="40"/>
       <c r="I29" s="5" t="s">
         <v>24</v>
       </c>
@@ -1504,7 +1516,7 @@
       <c r="G30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="31"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="5" t="s">
         <v>24</v>
       </c>
@@ -1521,7 +1533,7 @@
       <c r="G31" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="31"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="5" t="s">
         <v>24</v>
       </c>
@@ -1538,7 +1550,7 @@
       <c r="G32" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="40">
         <v>44504</v>
       </c>
       <c r="I32" s="5" t="s">
@@ -1548,7 +1560,7 @@
       <c r="K32" s="17"/>
     </row>
     <row r="33" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="32" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="19" t="s">
@@ -1557,7 +1569,7 @@
       <c r="G33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="31"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="5" t="s">
         <v>12</v>
       </c>
@@ -1565,62 +1577,62 @@
       <c r="K33" s="17"/>
     </row>
     <row r="34" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="30"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="31"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="31"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="31"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="31"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="31"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1628,7 +1640,7 @@
       <c r="K38" s="17"/>
     </row>
     <row r="39" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="32" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -1637,7 +1649,7 @@
       <c r="G39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="40">
         <v>44511</v>
       </c>
       <c r="I39" s="5" t="s">
@@ -1645,14 +1657,14 @@
       </c>
     </row>
     <row r="40" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="30"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="31"/>
+      <c r="H40" s="40"/>
       <c r="I40" s="5" t="s">
         <v>7</v>
       </c>
@@ -1667,7 +1679,7 @@
       <c r="G41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="31"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="5" t="s">
         <v>24</v>
       </c>
@@ -1682,16 +1694,16 @@
       <c r="G42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="31"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -1705,8 +1717,8 @@
       </c>
     </row>
     <row r="44" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
       <c r="G44" s="6" t="s">
         <v>72</v>
       </c>
@@ -1716,8 +1728,8 @@
       </c>
     </row>
     <row r="45" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
       <c r="G45" s="6" t="s">
         <v>73</v>
       </c>
@@ -1727,10 +1739,10 @@
       </c>
     </row>
     <row r="46" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="30"/>
+      <c r="F46" s="32"/>
       <c r="G46" s="20" t="s">
         <v>68</v>
       </c>
@@ -1740,8 +1752,8 @@
       </c>
     </row>
     <row r="47" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
       <c r="G47" s="20" t="s">
         <v>70</v>
       </c>
@@ -1751,8 +1763,8 @@
       </c>
     </row>
     <row r="48" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
       <c r="G48" s="20" t="s">
         <v>65</v>
       </c>
@@ -1762,8 +1774,8 @@
       </c>
     </row>
     <row r="49" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
       <c r="G49" s="20" t="s">
         <v>74</v>
       </c>
@@ -1922,47 +1934,48 @@
       <c r="H59" s="27">
         <v>44559</v>
       </c>
-      <c r="I59" s="40" t="s">
+      <c r="I59" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E60" s="40" t="s">
+      <c r="E60" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G60" s="41" t="s">
+      <c r="G60" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="H60" s="42">
+      <c r="H60" s="30">
         <v>44559</v>
       </c>
-      <c r="I60" s="43" t="s">
+      <c r="I60" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E61" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="I61" s="46" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="H22:H31"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H9"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="H10:H15"/>
@@ -1973,13 +1986,26 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="H22:H31"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="E50:E54"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I31 I34:I58 I60">
+  <conditionalFormatting sqref="I5:I31 I34:I58 I60:I61">
     <cfRule type="expression" dxfId="11" priority="2">
       <formula>$I5="Stuck"</formula>
     </cfRule>
